--- a/0_data/9_evaluation/distances/a3_50/a3_50_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/a3_50/a3_50_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.89901618929017</v>
+        <v>72.31540473225405</v>
       </c>
       <c r="C2" t="n">
         <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.41414694894147</v>
+        <v>3.414856787048568</v>
       </c>
       <c r="E2" t="n">
         <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>5.996911581569116</v>
+        <v>5.998493150684931</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008405977584059776</v>
+        <v>0.008393524283935243</v>
       </c>
       <c r="H2" t="n">
-        <v>2.386525529265255</v>
+        <v>2.377085927770859</v>
       </c>
       <c r="I2" t="n">
-        <v>5.953922789539228</v>
+        <v>125.0373599003736</v>
       </c>
       <c r="J2" t="n">
-        <v>338.9626400996264</v>
+        <v>338.9302615193026</v>
       </c>
       <c r="K2" t="n">
-        <v>5.637185554171856</v>
+        <v>5.63906600249066</v>
       </c>
       <c r="L2" t="n">
-        <v>3.024445828144458</v>
+        <v>3.024271481942714</v>
       </c>
       <c r="M2" t="n">
-        <v>4.828007471980075</v>
+        <v>4.793549190535492</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[81.0747198007472, 26.613947696139476, 119.90286425902865, 47.342465753424655, 13.166874221668742, 23.0, 0.21419676214196762, 14.251556662515567, 3.25653798256538, 4.265255292652553, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[80.55790784557908, 26.997509339975093, 121.60647571606475, 47.21793275217933, 12.586550435865504, 22.266500622665006, 0.1930261519302615, 14.129514321295144, 3.2391033623910337, 4.2465753424657535, 1.6874221668742218, 0.12702366127023662, 2.7148194271481945, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[62.07845579078456, 1.1805728518057286, 59.19053549190536, 1.0099626400996264, 65.67123287671232, 13.188044831880449, 1.5080946450809465, 53.510585305105856, 1.4346201743462017, 57.404732254047325, 0.8206724782067247, 21.96513075965131]</t>
+          <t>[30.32129514321295, 24.641344956413448, 32.20921544209215, 26.281444582814444, 30.42714819427148, 28.266500622665006, 26.044831880448317, 32.61519302615193, 22.945205479452056, 30.73225404732254, 25.12453300124533, 29.32129514321295]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[11.716064757160648, 71.27397260273973, 149.0049813200498, 24.813200498132005, 40.68866749688667, 3.207970112079701, 9.638854296388542, 2.261519302615193, 8.61892901618929, 1.1145703611457036, 2.459526774595268, 0.6363636363636364, 3.4408468244084682, 0.5255292652552926, 1.7073474470734744, 0.4246575342465753, 4.729763387297634, 0.18929016189290163, 0.5193026151930261, 0.10834371108343711, 0.298879202988792, 0.048567870485678705, 0.10834371108343711, 0.0273972602739726, 0.1930261519302615, 0.017434620174346202, 0.047322540473225407, 0.009962640099626401, 0.08343711083437111, 0.0136986301369863, 0.028642590286425903, 0.0062266500622665]</t>
+          <t>[7.711083437110834, 78.31257783312577, 146.76463262764634, 24.107098381070983, 40.595267745952675, 3.2104607721046077, 9.61892901618929, 2.2590286425902866, 8.61892901618929, 1.1133250311332503, 2.4632627646326277, 0.6326276463262764, 3.4420921544209215, 0.5255292652552926, 1.709838107098381, 0.42341220423412207, 4.723536737235367, 0.18929016189290163, 0.5180572851805728, 0.10834371108343711, 0.298879202988792, 0.048567870485678705, 0.10834371108343711, 0.0273972602739726, 0.1930261519302615, 0.017434620174346202, 0.047322540473225407, 0.009962640099626401, 0.08343711083437111, 0.0136986301369863, 0.028642590286425903, 0.0062266500622665]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[4.2465753424657535, 113.51432129514322, 59.48692403486924, 77.27272727272727, 13.86052303860523, 17.982565379825655, 0.0012453300124533001, 21.210460772104607, 0.0049813200498132005, 4.956413449564135, 2.5180572851805727, 4.818181818181818, 1.7970112079701122, 1.891656288916563, 0.0012453300124533001, 4.292652552926525, 0.0, 1.2951432129514322, 0.6537982565379825, 1.4831880448318804, 0.6425902864259029, 0.7571606475716065, 0.0012453300124533001, 1.6338729763387299, 0.0, 0.5591531755915318, 0.2901618929016189, 0.6264009962640099, 0.24906600249066002, 0.32254047322540474, 0.0, 2.592777085927771, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[7.080946450809464, 120.11830635118307, 50.06973848069738, 77.23910336239103, 13.863013698630137, 17.980074719800747, 0.0062266500622665, 21.201743462017436, 0.0012453300124533001, 4.952677459526774, 2.514321295143213, 4.816936488169365, 1.800747198007472, 1.8891656288916563, 0.0037359900373599006, 4.287671232876712, 0.0012453300124533001, 1.2951432129514322, 0.6562889165628891, 1.481942714819427, 0.6450809464508095, 0.7571606475716065, 0.0, 1.6338729763387299, 0.0, 0.5591531755915318, 0.2901618929016189, 0.6288916562889165, 0.24782067247820672, 0.32254047322540474, 0.0, 2.585305105853051, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[16.16936488169365, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.242839352428393, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.2764632627646326, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 14.14694894146949, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19551681195516812, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.816936488169365, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 16.001245330012452, 4.442092154420922, 0.3586550435865504, 11.642590286425904, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3150684931506849], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.0311332503113326, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.3001245330012453, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.72851805728518, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.38729763387297633, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.49439601494396, 0.0448318804483188, 5.4707347447073476], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.1382316313823163, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.07721046077210461, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.774595267745953, 0.026151930261519303, 3.8729763387297633]]</t>
+          <t>[[7.281444582814446, 0.8692403486924035, 5.4458281444582815, 2.1556662515566627, 0.7870485678704857, 1.4184308841843087, 0.019925280199252802, 1.887920298879203, 0.6313823163138231, 2.8617683686176836, 5.102117061021171, 1.7471980074719802], [1.0523038605230386, 6.006226650062266, 1.149439601494396, 4.331257783312578, 1.884184308841843, 0.5367372353673724, 1.1755915317559154, 0.0112079701120797, 1.211706102117061, 0.6973848069738481, 1.8032378580323787, 4.701120797011208], [6.3300124533001245, 1.3960149439601495, 8.01494396014944, 1.0062266500622665, 5.6313823163138235, 2.1257783312577834, 0.7858032378580324, 1.8854296388542964, 0.0136986301369863, 1.7447073474470736, 0.564134495641345, 2.6251556662515565], [2.232876712328767, 4.877957658779577, 1.2017434620174345, 6.403486924034869, 1.1207970112079702, 4.866749688667497, 1.7509339975093399, 0.6363636363636364, 1.1606475716064757, 0.0186799501867995, 1.2926525529265256, 0.6413449564134496], [0.8194271481942715, 1.9066002490660026, 6.731008717310087, 1.3138231631382316, 7.185554171855542, 1.1232876712328768, 4.606475716064757, 2.4744707347447075, 0.5990037359900373, 1.7982565379825655, 0.0161892901618929, 1.775840597758406], [1.4383561643835616, 0.6438356164383562, 2.3935242839352426, 5.364881693648817, 1.3810709838107098, 6.968866749688668, 0.7471980074719801, 5.2453300124533, 1.8480697384806974, 0.6089663760896638, 1.5205479452054795, 0.017434620174346202], [0.021170610211706103, 1.3549190535491906, 0.9551681195516812, 1.9414694894146949, 5.442092154420922, 0.9215442092154421, 6.408468244084682, 1.2714819427148194, 3.5541718555417185, 1.9825653798256537, 0.39352428393524286, 1.729763387297634], [1.7808219178082192, 0.0186799501867995, 1.526774595267746, 0.6899128268991283, 2.8443337484433373, 6.057285180572852, 1.5703611457036115, 8.587795765877958, 0.8655043586550436, 5.74346201743462, 1.9825653798256537, 0.8480697384806973], [0.5130759651307597, 1.0635118306351183, 0.012453300124533, 1.261519302615193, 0.5927770859277709, 2.019925280199253, 4.453300124533001, 1.082191780821918, 5.403486924034869, 0.7646326276463262, 3.980074719800747, 1.729763387297634], [2.712328767123288, 0.5616438356164384, 1.7783312577833126, 0.0136986301369863, 1.917808219178082, 0.7571606475716065, 2.24906600249066, 6.488169364881694, 1.0610211706102117, 7.127023661270236, 0.9265255292652553, 5.058530510585305], [4.627646326276463, 1.6127023661270237, 0.5454545454545454, 1.2179327521793275, 0.009962640099626401, 1.3748443337484433, 0.6114570361145704, 2.032378580323786, 4.530510585305106, 1.2042341220423411, 6.405977584059776, 0.8754669987546699], [1.4346201743462017, 4.259028642590287, 2.368617683686177, 0.5105853051058531, 1.5342465753424657, 0.019925280199252802, 1.6002490660024906, 0.9115815691158157, 1.9975093399750934, 6.072229140722292, 1.049813200498132, 7.47945205479452]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.0460772104607721, 0.9315068493150684, 0.6861768368617683, 1.7957658779576589, 0.11830635118306351, 0.14819427148194272, 0.0, 0.3300124533001245, 0.0, 0.014943960149439602, 0.026151930261519303, 0.029887920298879204, 0.008717310087173101, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.028642590286425903], [0.6587795765877957, 60.255292652552924, 16.89165628891656, 16.62640099626401, 3.468244084682441, 5.734744707347447, 0.0, 3.1930261519302614, 0.0, 1.5828144458281446, 0.6687422166874222, 0.8443337484433375, 0.46201743462017436, 0.6239103362391034, 0.0, 0.75093399750934, 0.0, 0.30884184308841844, 0.16189290161892902, 0.1780821917808219, 0.0647571606475716, 0.16687422166874222, 0.0, 0.26650062266500624, 0.0, 0.0958904109589041, 0.0410958904109589, 0.07970112079701121, 0.06351183063511831, 0.06351183063511831, 0.0, 0.25529265255292655], [0.21544209215442092, 16.188044831880447, 20.933997509339974, 9.975093399750934, 2.6077210460772107, 2.506849315068493, 0.0, 2.668742216687422, 0.0, 0.7297633872976339, 0.5417185554171855, 0.5691158156911582, 0.22042341220423411, 0.286425902864259, 0.0, 0.5566625155666252, 0.0, 0.20298879202988793, 0.11706102117061021, 0.2403486924034869, 0.13449564134495642, 0.09713574097135741, 0.0, 0.20921544209215442, 0.0, 0.062266500622665005, 0.0547945205479452, 0.05977584059775841, 0.0361145703611457, 0.04234122042341221, 0.0, 0.21793275217932753], [2.506849315068493, 15.688667496886675, 8.938978829389788, 27.669987546699875, 3.2391033623910337, 3.5367372353673723, 0.0, 6.290161892901619, 0.0, 1.2627646326276463, 0.6450809464508095, 1.7347447073474471, 0.5442092154420921, 0.5242839352428393, 0.0, 1.389788293897883, 0.0, 0.41344956413449563, 0.1581569115815691, 0.4931506849315068, 0.15940224159402241, 0.21419676214196762, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.0759651307596513, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.7285180572851806], [0.1917808219178082, 2.987546699875467, 2.24906600249066, 3.332503113325031, 1.6425902864259028, 0.9240348692403487, 0.0, 0.925280199252802, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2590286425902864, 0.11083437110834371, 0.09090909090909091, 0.0, 0.23536737235367372, 0.0, 0.05977584059775841, 0.037359900373599, 0.06724782067247821, 0.033623910336239106, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.019925280199252802, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.11581569115815692], [0.21793275217932753, 4.877957658779577, 2.503113325031133, 3.569115815691158, 0.9327521793275217, 2.427148194271482, 0.0, 1.174346201743462, 0.0, 0.33374844333748444, 0.1295143212951432, 0.31008717310087175, 0.1519302615193026, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.06724782067247821, 0.0759651307596513, 0.0, 0.1307596513075965, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.1581569115815691], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0037359900373599006, 3.6587795765877957, 2.2428393524283936, 5.268991282689913, 0.775840597758406, 1.029887920298879, 0.0, 4.2278953922789535, 0.0, 0.3001245330012453, 0.16064757160647572, 0.613947696139477, 0.14570361145703611, 0.11457036114570361, 0.0, 0.6724782067247821, 0.0, 0.11207970112079702, 0.08841843088418432, 0.2627646326276463, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33499377334993774, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.6039850560398505], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 1.937733499377335, 0.7696139476961394, 1.2216687422166874, 0.14072229140722292, 0.2266500622665006, 0.0, 0.261519302615193, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.07721046077210461], [0.0037359900373599006, 0.772104607721046, 0.6836861768368617, 0.5877957658779577, 0.09713574097135741, 0.09090909090909091, 0.0, 0.12204234122042341, 0.0, 0.012453300124533, 0.009962640099626401, 0.031133250311332503, 0.012453300124533, 0.014943960149439602, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0186799501867995], [0.1519302615193026, 1.2179327521793275, 0.6998754669987547, 1.6774595267745953, 0.12702366127023662, 0.18306351183063513, 0.0, 0.298879202988792, 0.0, 0.06102117061021171, 0.0136986301369863, 0.11955168119551682, 0.021170610211706103, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0062266500622665, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.06351183063511831], [0.007471980074719801, 0.5877957658779577, 0.3150684931506849, 0.42839352428393523, 0.06102117061021171, 0.1432129514321295, 0.0, 0.09713574097135741, 0.0, 0.0448318804483188, 0.014943960149439602, 0.009962640099626401, 0.0186799501867995, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0161892901618929], [0.034869240348692404, 0.6438356164383562, 0.3437110834371108, 0.45703611457036114, 0.049813200498132, 0.1519302615193026, 0.0, 0.0821917808219178, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0224159402241594], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9165628891656289, 0.6376089663760897, 1.4595267745952678, 0.14694894146948942, 0.20049813200498132, 0.0, 0.5579078455790785, 0.0, 0.029887920298879204, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.062266500622665005, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.012453300124533, 0.0024906600249066002, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.05603985056039851], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.4396014943960149, 0.18679950186799502, 0.33872976338729766, 0.058530510585305104, 0.0784557907845579, 0.0, 0.0684931506849315, 0.0, 0.0273972602739726, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0062266500622665], [0.0012453300124533001, 0.1930261519302615, 0.136986301369863, 0.20049813200498132, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0049813200498132005], [0.05105853051058531, 0.32129514321295144, 0.28268991282689915, 0.46077210460772106, 0.05603985056039851, 0.07098381070983811, 0.0, 0.1095890410958904, 0.0, 0.0136986301369863, 0.012453300124533, 0.023661270236612703, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.009962640099626401, 0.0, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0012453300124533001, 0.22042341220423411, 0.09339975093399751, 0.16811955168119552, 0.028642590286425903, 0.034869240348692404, 0.0, 0.021170610211706103, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0136986301369863, 0.22789539227895392, 0.1295143212951432, 0.16064757160647572, 0.031133250311332503, 0.047322540473225407, 0.0, 0.0547945205479452, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.33623910336239105, 0.20672478206724781, 0.5529265255292652, 0.062266500622665005, 0.08094645080946451, 0.0, 0.18181818181818182, 0.0, 0.026151930261519303, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.021170610211706103, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.16189290161892902, 0.0660024906600249, 0.1307596513075965, 0.021170610211706103, 0.05603985056039851, 0.0, 0.033623910336239106, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.0024906600249066002, 0.06351183063511831, 0.039850560398505604, 0.0647571606475716, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.04234122042341221, 0.11955168119551682, 0.0647571606475716, 0.21419676214196762, 0.0323785803237858, 0.039850560398505604, 0.0, 0.029887920298879204, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006], [0.0, 0.053549190535491904, 0.0136986301369863, 0.0722291407222914, 0.0186799501867995, 0.012453300124533, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.0037359900373599006, 0.053549190535491904, 0.04234122042341221, 0.052303860523038606, 0.007471980074719801, 0.029887920298879204, 0.0, 0.039850560398505604, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.043586550435865505, 0.32004981320049813, 0.16189290161892902, 0.4931506849315068, 0.06973848069738481, 0.12702366127023662, 0.0012453300124533001, 0.3163138231631382, 0.0049813200498132005, 0.043586550435865505, 0.048567870485678705, 0.11207970112079702, 0.0273972602739726, 0.031133250311332503, 0.0012453300124533001, 0.1432129514321295, 0.0, 0.023661270236612703, 0.017434620174346202, 0.0448318804483188, 0.009962640099626401, 0.017434620174346202, 0.0012453300124533001, 0.05603985056039851, 0.0, 0.009962640099626401, 0.007471980074719801, 0.0224159402241594, 0.0037359900373599006, 0.0112079701120797, 0.0, 0.1780821917808219]]</t>
+          <t>[[0.047322540473225407, 2.8019925280199254, 1.2665006226650062, 2.032378580323786, 0.1780821917808219, 0.18057285180572852, 0.0, 0.34744707347447074, 0.0, 0.023661270236612703, 0.028642590286425903, 0.037359900373599, 0.0161892901618929, 0.012453300124533, 0.0, 0.029887920298879204, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0024906600249066002, 0.0, 0.0, 0.024906600249066], [3.506849315068493, 64.27023661270236, 15.65255292652553, 16.900373599003736, 3.800747198007472, 5.839352428393524, 0.0, 3.2752179327521795, 0.0, 1.6338729763387299, 0.6874221668742216, 0.8617683686176837, 0.4657534246575342, 0.6301369863013698, 0.0, 0.7658779576587795, 0.0, 0.3150684931506849, 0.16936488169364883, 0.20298879202988793, 0.0647571606475716, 0.16811955168119552, 0.0, 0.27895392278953923, 0.0, 0.0958904109589041, 0.048567870485678705, 0.07970112079701121, 0.0647571606475716, 0.06351183063511831, 0.0, 0.27023661270236615], [0.21170610211706103, 14.950186799501868, 14.107098381070983, 9.48318804483188, 2.2179327521793275, 2.3698630136986303, 0.0, 2.569115815691158, 0.0, 0.6699875466998755, 0.5205479452054794, 0.5454545454545454, 0.20921544209215442, 0.28019925280199254, 0.0, 0.5367372353673724, 0.0, 0.19676214196762143, 0.1095890410958904, 0.21544209215442092, 0.1307596513075965, 0.09464508094645081, 0.0, 0.19676214196762143, 0.0, 0.062266500622665005, 0.047322540473225407, 0.05977584059775841, 0.033623910336239106, 0.04234122042341221, 0.0, 0.19676214196762143], [2.4993773349937736, 16.246575342465754, 8.392278953922789, 27.627646326276462, 3.2415940224159403, 3.5367372353673723, 0.0024906600249066002, 6.287671232876712, 0.0, 1.2590286425902864, 0.6450809464508095, 1.7334993773349938, 0.5442092154420921, 0.523038605230386, 0.0012453300124533001, 1.389788293897883, 0.0, 0.4122042341220423, 0.1569115815691158, 0.4919053549190536, 0.16064757160647572, 0.21419676214196762, 0.0, 0.47322540473225405, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.06724782067247821, 0.08343711083437111, 0.0, 0.7422166874221668], [0.1917808219178082, 3.352428393524284, 1.887920298879203, 3.3349937733499377, 1.6376089663760898, 0.925280199252802, 0.0, 0.925280199252802, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2577833125778331, 0.11207970112079702, 0.09090909090909091, 0.0024906600249066002, 0.2328767123287671, 0.0, 0.05977584059775841, 0.037359900373599, 0.0660024906600249, 0.034869240348692404, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.019925280199252802, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.11581569115815692], [0.2191780821917808, 5.0485678704856785, 2.3337484433374844, 3.5666251556662516, 0.9315068493150684, 2.4259028642590286, 0.0012453300124533001, 1.1718555417185554, 0.0, 0.33374844333748444, 0.1295143212951432, 0.31008717310087175, 0.1519302615193026, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.0660024906600249, 0.0759651307596513, 0.0, 0.1307596513075965, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.16064757160647572], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0037359900373599006, 3.924034869240349, 1.9825653798256537, 5.262764632627646, 0.775840597758406, 1.0273972602739727, 0.0, 4.225404732254047, 0.0, 0.3001245330012453, 0.16064757160647572, 0.6114570361145704, 0.14694894146948942, 0.11457036114570361, 0.0, 0.6724782067247821, 0.0, 0.11083437110834371, 0.08841843088418432, 0.2627646326276463, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33499377334993774, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.6027397260273972], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 2.070983810709838, 0.6338729763387297, 1.2204234122042341, 0.14072229140722292, 0.2266500622665006, 0.0, 0.261519302615193, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0784557907845579], [0.0062266500622665, 0.8891656288916563, 0.5628891656288917, 0.5877957658779577, 0.09713574097135741, 0.09090909090909091, 0.0, 0.12204234122042341, 0.0, 0.012453300124533, 0.009962640099626401, 0.031133250311332503, 0.012453300124533, 0.014943960149439602, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0161892901618929], [0.1506849315068493, 1.2963885429638855, 0.6239103362391034, 1.676214196762142, 0.12702366127023662, 0.1843088418430884, 0.0, 0.29763387297633875, 0.0, 0.06102117061021171, 0.0136986301369863, 0.11706102117061021, 0.0224159402241594, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0062266500622665, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.06351183063511831], [0.007471980074719801, 0.635118306351183, 0.26899128268991285, 0.42839352428393523, 0.06102117061021171, 0.1432129514321295, 0.0, 0.09713574097135741, 0.0012453300124533001, 0.0448318804483188, 0.014943960149439602, 0.0112079701120797, 0.0186799501867995, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0161892901618929], [0.034869240348692404, 0.6961394769613948, 0.2901618929016189, 0.45703611457036114, 0.049813200498132, 0.1519302615193026, 0.0, 0.0821917808219178, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0224159402241594], [0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9713574097135741, 0.5790784557907845, 1.4582814445828145, 0.14694894146948942, 0.20049813200498132, 0.0, 0.5579078455790785, 0.0, 0.029887920298879204, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.062266500622665005, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.012453300124533, 0.0024906600249066002, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.05603985056039851], [0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.46450809464508097, 0.16064757160647572, 0.33872976338729766, 0.058530510585305104, 0.0784557907845579, 0.0012453300124533001, 0.06724782067247821, 0.0, 0.0273972602739726, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.0012453300124533001, 0.21046077210460773, 0.12204234122042341, 0.20049813200498132, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.049813200498132, 0.3312577833125778, 0.2714819427148194, 0.46077210460772106, 0.05603985056039851, 0.0722291407222914, 0.0, 0.10834371108343711, 0.0, 0.0136986301369863, 0.012453300124533, 0.023661270236612703, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.009962640099626401, 0.0, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.009962640099626401], [0.0012453300124533001, 0.22914072229140722, 0.09090909090909091, 0.1643835616438356, 0.028642590286425903, 0.034869240348692404, 0.0, 0.0224159402241594, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.24159402241594022, 0.11581569115815692, 0.16064757160647572, 0.031133250311332503, 0.047322540473225407, 0.0, 0.0547945205479452, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.34744707347447074, 0.19551681195516812, 0.5541718555417185, 0.062266500622665005, 0.08094645080946451, 0.0, 0.18181818181818182, 0.0, 0.026151930261519303, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.021170610211706103, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.1656288916562889, 0.062266500622665005, 0.1307596513075965, 0.021170610211706103, 0.05603985056039851, 0.0, 0.033623910336239106, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.0024906600249066002, 0.0647571606475716, 0.038605230386052306, 0.0660024906600249, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 0.12453300124533001, 0.062266500622665005, 0.21419676214196762, 0.0323785803237858, 0.039850560398505604, 0.0, 0.029887920298879204, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006], [0.0, 0.053549190535491904, 0.0136986301369863, 0.0722291407222914, 0.0186799501867995, 0.012453300124533, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0037359900373599006, 0.05105853051058531, 0.0448318804483188, 0.052303860523038606, 0.007471980074719801, 0.029887920298879204, 0.0, 0.039850560398505604, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.038605230386052306, 0.31880448318804483, 0.16313823163138233, 0.49813200498132004, 0.07098381070983811, 0.12702366127023662, 0.0, 0.3175591531755915, 0.0, 0.043586550435865505, 0.0448318804483188, 0.11457036114570361, 0.0273972602739726, 0.029887920298879204, 0.0, 0.14072229140722292, 0.0012453300124533001, 0.023661270236612703, 0.021170610211706103, 0.0460772104607721, 0.0112079701120797, 0.017434620174346202, 0.0, 0.058530510585305104, 0.0, 0.009962640099626401, 0.008717310087173101, 0.024906600249066, 0.0037359900373599006, 0.0112079701120797, 0.0, 0.16936488169364883]]</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.589628813979775</v>
+        <v>5.031653942699256</v>
       </c>
       <c r="C3" t="n">
         <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5969575108943947</v>
+        <v>0.5978659209557251</v>
       </c>
       <c r="E3" t="n">
         <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.391660332695042</v>
+        <v>1.394164263426338</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02079849511115319</v>
+        <v>0.0208005306453014</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4285598203108515</v>
+        <v>0.4283159136451429</v>
       </c>
       <c r="I3" t="n">
-        <v>15.25553592201897</v>
+        <v>106.0107191600952</v>
       </c>
       <c r="J3" t="n">
-        <v>81.61224787213895</v>
+        <v>81.59223474337057</v>
       </c>
       <c r="K3" t="n">
-        <v>1.550233357017902</v>
+        <v>1.553964599649465</v>
       </c>
       <c r="L3" t="n">
-        <v>0.890177776466854</v>
+        <v>0.8910370417298406</v>
       </c>
       <c r="M3" t="n">
-        <v>1.646334322763848</v>
+        <v>1.672116199257514</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[44.189497926979804, 25.799599458835893, 38.07632145843377, 24.63620289428403, 9.276413860697431, 12.652457565265603, 0.8921674929666127, 10.1943251834253, 4.666612977517225, 5.336556020994414, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[44.53381125966603, 26.16867393783276, 38.62956955807219, 24.973930661050826, 9.150787126635349, 12.126818917977902, 0.8344101401624855, 10.108904531285607, 4.695204643369049, 5.303160325912351, 2.8578926485945755, 0.6611846292908672, 3.7038053281541234, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[26.92002031027889, 4.227764621434892, 24.424480096457316, 3.7476302680828053, 22.754228747142264, 16.499617159617078, 5.322793087988967, 25.796759525637036, 4.525466552825089, 27.491229485998787, 3.265765828546395, 20.06940087256966]</t>
+          <t>[33.11098935784556, 31.79238196279947, 33.19141158486526, 33.89409911143388, 33.05428736242567, 32.79440785612016, 32.00168087997243, 33.92898037660591, 30.863730321628996, 33.15237913583798, 31.2262372258095, 33.20439560867364]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[21.686009709983814, 72.7775892149464, 85.96102377856744, 32.42629308572125, 39.282705704479994, 5.070151585503006, 10.195673865006906, 4.113744078606814, 10.815525041185259, 2.53087030812154, 4.409238944529501, 1.7026161767564227, 5.296905770346, 1.3777391600385327, 2.971057283593464, 1.077444384652782, 7.303964246720032, 0.8710280033131858, 1.6134748627057829, 0.5729194827097635, 1.1160936319909365, 0.3477482324748241, 0.5772504254812084, 0.3183809842792927, 0.7659316163405778, 0.14007610152566805, 0.2871289222805381, 0.09931458050997263, 0.3410658584034613, 0.1448549541578633, 0.20068754927160506, 0.07866307196689296]</t>
+          <t>[19.213585225879868, 79.93961406332063, 86.81444488135638, 32.28004001293829, 39.33556916160032, 5.11480065256313, 10.185049495417354, 4.113598934291709, 10.81667640806336, 2.531172386763788, 4.414070428515079, 1.7014480521176927, 5.298329970818815, 1.3786427576165583, 2.972139682970127, 1.0773565791813682, 7.3152313128315845, 0.8710280033131858, 1.6134892804071148, 0.5729194827097635, 1.1160936319909365, 0.3477482324748241, 0.5772504254812084, 0.3183809842792927, 0.7659316163405778, 0.14007610152566805, 0.2871289222805381, 0.09931458050997263, 0.3410658584034613, 0.1448549541578633, 0.20068754927160506, 0.07866307196689296]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[10.311534491256449, 91.75435955455536, 68.25529518597438, 60.743681648245634, 16.888852778379242, 17.05619442499294, 0.03526725344584421, 25.89814881880533, 0.08629696706884245, 5.513424629630707, 3.9313042856673794, 6.349067115112054, 2.9112896636161754, 2.983886592922362, 0.03526725344584419, 6.286658534495317, 0.0, 2.269800397885193, 1.395489940306396, 2.61629224363721, 1.629592241781981, 1.7076657895100733, 0.03526725344584421, 3.075302059710585, 0.0, 1.318486350606827, 0.9608735900119527, 1.6408242540644988, 1.071646816123633, 1.022451585467955, 0.0, 5.49785853329974, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[12.861448591676377, 94.06069528305407, 57.94406301908337, 60.76424946171567, 16.875300154402666, 17.055753611382887, 0.10568443093039571, 25.901415684181696, 0.035267253445844, 5.511925454956629, 3.932269870270229, 6.349521673648789, 2.909622364836062, 2.983377723539086, 0.07882063461243541, 6.285897947606841, 0.03526725344584406, 2.269800397885193, 1.3961054801822617, 2.6215146272104737, 1.6331894205389959, 1.7076657895100733, 0.0, 3.0781353736693444, 0.0, 1.318486350606827, 0.9582780055561356, 1.6413893643943163, 1.0701914297730437, 1.022451585467955, 0.0, 5.4997913014008315, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[15.497678546121529, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374591568516089, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5327983978986317, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.42256329880656, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0947081248483568, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.70901819465485, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.402337984671936, 6.765605758296028, 1.5957241072502508, 9.436714778906712, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.623603861951986], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.240132601165399, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5537966146617601, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.725416093404476, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8058126832276957, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.685130491426762, 0.4151340798331694, 6.933060317277985], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.8013502684208056, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5319352475974184, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.2594852919602175, 0.4091889883963065, 7.109624051601174]]</t>
+          <t>[[12.145157418602903, 3.7471899370295105, 9.535696422227993, 5.96163969422672, 2.825031613595803, 3.354780834787427, 0.2536930110518476, 4.155734357899146, 2.35167441622695, 6.649530764530581, 9.177753871632449, 4.828010993805787], [4.109916210230541, 11.466827398793058, 4.13593239751184, 8.800676798781469, 5.323908004394504, 2.21161494432541, 2.9100764507086976, 0.22009600607836, 3.2809518488422014, 2.732914662142555, 5.241480257962126, 8.523666341982336], [10.390480046243162, 4.654978621048339, 12.067670377266102, 3.9326472831270105, 9.503547817936589, 5.6434421092121445, 2.719597746268516, 4.0730349075811025, 0.1759136090349544, 3.680019933047869, 1.900857469707438, 6.299120484135102], [5.991842945740374, 9.820052162358055, 4.322796814888, 13.228016149580595, 4.423316840097056, 8.927600187157102, 5.488149442956291, 2.195835008506002, 3.050483591342437, 0.288250186982405, 3.097467460695091, 2.41382159226022], [2.9110552657514206, 5.295501394300301, 10.326542586797165, 4.995005795068068, 11.657169661566593, 3.989212496146608, 8.139478866734196, 6.055186907170964, 2.246036831466679, 3.7707198541025755, 0.2796313603096256, 3.897767555257129], [3.4951841320925556, 2.5137571633593283, 5.906878689156752, 9.98430210369429, 4.339771226123096, 11.986512847675964, 2.9180763541012356, 9.288021047470993, 5.5172619985159, 2.44114161942571, 3.6113166116899946, 0.22803485378865546], [0.2608542810616591, 3.2733209778195937, 2.946679760229277, 6.125528829789802, 9.532147696483332, 3.3209507568226506, 11.875444406231875, 4.189891312560363, 7.672661234297638, 5.605076412341876, 1.4131768818773534, 3.9738182144881278], [3.7538564077068273, 0.23065179382894777, 3.4450271605950467, 2.286946087764437, 6.293322254932407, 10.334105167650279, 4.724643877579283, 13.329083193442706, 3.4488748631383483, 9.883830410375344, 5.522258358586261, 2.5529180208223328], [2.05909358190352, 2.828374486769145, 0.186317352022567, 3.1836836803303847, 2.1102366015316294, 5.8386014373397215, 9.135822963137295, 3.9014279313405766, 10.866635801599193, 3.2436383885688, 8.08251970467646, 5.114426480599669], [6.539329043581681, 2.069676288191982, 3.657596364143476, 0.19600402526076519, 4.10396875958609, 2.6637285842323375, 6.001264582333904, 10.639960721058248, 4.1111593663820996, 11.64154558230538, 3.6606801398387883, 9.029510844153519], [8.95871715234031, 4.868961654332907, 2.227723796040667, 2.8762049872580566, 0.13166383701150342, 3.418900629405698, 2.3495248970648266, 5.148983161039355, 8.970131875637394, 4.561808210776914, 11.543283174009133, 3.3339542862655613], [4.400458138601073, 8.136760827568724, 5.9301548206012775, 2.03477244679101, 3.5939287776404627, 0.2585552240459651, 3.7946478580178638, 2.6182428992952764, 5.710316527364313, 10.18446370745735, 3.720296636491089, 12.386089240498999]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[0.5981448522516661, 3.452800923536526, 2.536143845995947, 6.358577972166925, 0.6876973477766123, 0.7447323369277237, 0.0, 1.860498031810386, 0.0, 0.1793188734596477, 0.30855548528992865, 0.2717103475530585, 0.10550819217920393, 0.15732614393378672, 0.0, 0.2675982099834029, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.08629696706884259, 0.07053450689168851, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.03526725344584417, 0.0, 0.0, 0.2503825725900313], [2.742249488833973, 70.73021256945191, 22.66523866425233, 17.54155075421962, 5.4016671270203735, 7.714592972773921, 0.0, 4.533132618900159, 0.0, 3.051497160124377, 1.8200096580008809, 1.7727499089818197, 1.3220947998237327, 1.7561210940781435, 0.0, 1.767348380557395, 0.0, 1.0700305642182504, 0.703092194246869, 0.783972582067646, 0.42439999056073824, 0.8407720865311248, 0.0, 0.9949867279161847, 0.0, 0.5010778399499204, 0.314933102102731, 0.5124831841471554, 0.475764962637261, 0.3925852250797812, 0.0, 1.0060000607975048], [2.509193188726742, 22.25602763668445, 38.20289775783876, 15.830732201240485, 5.3452918179992, 4.876138603664875, 0.0, 5.581713318833864, 0.0, 1.9135613082685867, 1.6428843619202245, 1.629779711534943, 0.9599612487248417, 1.050482924194363, 0.0, 1.7897493704130143, 0.0, 0.7401598788104239, 0.6342215239818803, 0.9719687063300225, 0.8611400757459441, 0.5606696452134722, 0.0, 0.9126561387276729, 0.0, 0.4693423964887469, 0.5507710446105903, 0.42804947231461904, 0.2951510946817137, 0.4123866665783569, 0.0, 0.9835899936848558], [7.87785903180499, 16.74317640881845, 14.794903785955011, 42.451694718034695, 5.7364374843392065, 4.990360103448232, 0.0, 10.205448223780333, 0.0, 2.673041621445877, 1.8532217813936331, 3.8522689247797044, 1.5873019523659646, 1.4814235619636973, 0.0, 3.5078627681981467, 0.0, 1.3074814632420106, 0.6262363335760979, 1.4621468413816456, 0.719412823630801, 0.7852613028241368, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.4355985661866207, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 2.2298822312491415], [1.1545921920934599, 4.521413761175739, 4.875816092179794, 5.81900327284173, 6.040793599588729, 2.38048472073095, 0.0, 2.377121340600691, 0.0, 0.9913609110736527, 0.615520657333571, 0.8830224067293442, 0.5810795777519577, 0.47915923195599625, 0.0, 0.9972037908719813, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40906389761668716, 0.268968220034349, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.19862916101994346, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.5307823834991117], [1.3189214849254736, 7.098492275898042, 4.990494353644506, 5.438540807730167, 2.4373516796036783, 5.482507921794044, 0.0, 2.8093403035526814, 0.0, 1.0857135301134615, 0.7219477861724435, 1.1756073621155918, 0.7397826311412653, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4210652116157133, 0.4240088097719355, 0.0, 0.6226027366123915, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.6572841895933184], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.061008461837688044, 4.498582259577258, 4.382639578105533, 9.397006616662472, 2.036910740405501, 2.426832847792426, 0.0, 12.667571444652252, 0.0, 1.0960531408672098, 0.827813864855967, 2.516279198239142, 0.7401934026317223, 0.6207892044261079, 0.0, 2.964896695318166, 0.0, 0.5861761886654182, 0.5171074490201772, 1.142170631550324, 0.6723905666797703, 0.6022249069870969, 0.0, 1.4681706728082267, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 2.187951625059379], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.288700355930052, 2.086061964791826, 2.562917605952422, 0.6555618744228082, 0.9234388654998725, 0.0, 1.2491994679187797, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.5681598965388478], [0.10580176033753269, 1.8060694486415125, 1.892390309129679, 1.9529204743691084, 0.5562096106810701, 0.5672283406972923, 0.0, 0.7128423894381034, 0.0, 0.1573261439337848, 0.19303016908204845, 0.48156768273402656, 0.13145164696706657, 0.17223413817803668, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.03526725344584399, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.18911803145698197], [0.9252676285414514, 2.254333523865254, 1.8828286090459763, 4.129814751865403, 0.6102523685844544, 0.7585869276001889, 0.0, 1.2051513504278002, 0.0, 0.4205345033919183, 0.18285583903340205, 1.0009478935914595, 0.3089372367037806, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.10568443093039473, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.2136094935250671, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.42605213205066145], [0.09953295742310325, 1.4440845965263878, 1.1043261872344543, 1.2882419830072576, 0.42348545260492076, 1.1016406369062917, 0.0, 0.6549204625063324, 0.0, 0.3998537283987718, 0.17931887345964864, 0.1493877037322834, 0.2657722148209997, 0.0862969670688439, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.15296789571889574], [0.3784738003113154, 1.7623914560082512, 1.1517141596630311, 1.3890103028274345, 0.3310564093578771, 0.8450754776983171, 0.0, 0.5120896345906986, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.07040246089714865, 0.2821380275667512, 0.0, 0.049844324025377806, 0.0, 0.07882063461243624, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.2045452176103844], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.8704657798504827, 1.7755584984979746, 3.591784353848485, 0.8561985728484334, 0.884852325133488, 0.0, 3.0410346942172697, 0.0, 0.25271302472919566, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5292051830240878, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14920072231784745, 0.07053450689168789, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.5095332842678908], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.373934851779479, 0.7334560326498049, 1.0714601159274395, 0.3837435482682072, 0.4708928552986611, 0.0, 0.3755160446189851, 0.0, 0.32611005994980435, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07866307196689243], [0.035267253445844256, 0.6888915297703234, 0.6905621609916225, 0.764009708905338, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.03526725344584384, 0.03526725344584419, 0.0, 0.07040246089714877], [0.5408661936315918, 1.0210156915566062, 1.060339820636888, 1.4624883353815656, 0.3501968966266702, 0.4477060985422264, 0.0, 0.8080819690611425, 0.0, 0.17591360903495365, 0.17950904055170688, 0.27002706350574374, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.035267253445844166, 0.03526725344584394, 0.16522108242054565, 0.0, 0.07882063461243619, 0.0, 0.06100846183768793, 0.0, 0.0, 0.0, 0.07053450689168847, 0.0, 0.035267253445843846, 0.0, 0.09295869293410508], [0.03526725344584419, 0.994370866289755, 0.5281550145574505, 0.7095715127174085, 0.2601398714280752, 0.2711160947356388, 0.0, 0.21936197425475198, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.04984432402537778], [0.2565440277854765, 0.869645254261883, 0.6937997157399078, 0.713049039743696, 0.2738537045298144, 0.31206886765491826, 0.0, 0.37610615783645407, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.049844324025378375], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0803437037221253, 0.8813013177531895, 1.8113041415597653, 0.4068018738819371, 0.5464005171597189, 0.0, 1.1679907631196826, 0.0, 0.21305700411948192, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.304879576549922, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.09295869293410507], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6685926212108927, 0.42858896755180403, 0.6084402579242185, 0.21936197425475323, 0.396871650229194, 0.0, 0.27355906750344045, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.049844324025378264, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.06100846183768806], [0.07053450689168825, 0.352470195409574, 0.3398131162956131, 0.4897868848649545, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0352672534458439, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413], [0.4001251337669047, 0.6198491748065699, 0.4273242469283259, 1.0826137350261194, 0.2848568208032502, 0.36113282065740643, 0.0, 0.24265727439737708, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.061008461837688405], [0.0, 0.4156007891581909, 0.12649757979606965, 0.5688146222788149, 0.1891180314569826, 0.16505203903612162, 0.0, 0.3465733511849521, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07040246089714862], [0.07882063461243573, 0.36451811415950947, 0.30060213235205285, 0.30724590663789775, 0.11134392501747144, 0.226738996961806, 0.0, 0.3779817644814471, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.06100846183768818], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3375143015921877, 1.116360390087913, 0.7961253638753412, 1.7836647488242299, 0.5445240190512478, 0.7102203423466364, 0.03526725344584421, 1.3601957082632739, 0.08629696706884245, 0.31061436477554316, 0.3405106652361291, 0.5711111135181711, 0.2480239721320222, 0.2550161002467814, 0.03526725344584419, 0.6920024461921163, 0.0, 0.20133562700562752, 0.17199986720418067, 0.2918273519860693, 0.11114875584899042, 0.15685226892985182, 0.03526725344584421, 0.3430110003442121, 0.0, 0.11114875584898999, 0.11134392501746998, 0.1853827553268103, 0.06100846183768915, 0.1450689202333601, 0.0, 0.968709870225156]]</t>
+          <t>[[0.6032309680582033, 6.974916525516791, 3.725809291636635, 6.555744123844732, 0.9158451897975939, 0.8431224481801997, 0.0, 1.872013941557469, 0.0, 0.23019412422188812, 0.33910955925753683, 0.31341767474144994, 0.16846512152513995, 0.15732614393378672, 0.0, 0.2851289060094094, 0.0, 0.11134392501747176, 0.035267253445844256, 0.1269381686756842, 0.13639632946543412, 0.07882063461243609, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.049844324025378015, 0.0, 0.0, 0.22734010158146237], [8.412372457996879, 72.07487422959377, 20.58382195704375, 17.377646635840815, 5.639007485300842, 7.725221624315086, 0.0, 4.552198548775545, 0.0, 3.0675984447099554, 1.8507657073408263, 1.790961216317061, 1.313692721623636, 1.7627495663135448, 0.0, 1.7799159928263837, 0.0, 1.07228627106496, 0.7171327786948001, 0.8439313999635857, 0.42439999056073824, 0.8412644374406971, 0.0, 1.0052875906149936, 0.0, 0.5010778399499204, 0.347748232474827, 0.5124831841471554, 0.47690448987316164, 0.3925852250797812, 0.0, 1.0254292634796816], [2.5072770707759893, 20.353966309983008, 29.033471248307777, 15.615895525848911, 4.658828677151506, 4.695875443724872, 0.0, 5.485962395289186, 0.0, 1.8171545572065249, 1.6219274847410945, 1.589618761554814, 0.9435181016441375, 1.0408560324790945, 0.0, 1.777704121796813, 0.0, 0.7359405174955117, 0.6216879008447389, 0.9159772616077364, 0.855187260823239, 0.5588715879927961, 0.0, 0.8947832630765055, 0.0, 0.4693423964887469, 0.5307502425835738, 0.42804947231461904, 0.29119959394370315, 0.4123866665783569, 0.0, 0.9113314480367277], [7.8735926761373936, 16.79297346395613, 14.652446449681765, 42.46076008813565, 5.74501037065801, 4.990360103448232, 0.07053450689168837, 10.206006823152201, 0.0, 2.6722414326549044, 1.8545652566252837, 3.8526678610100804, 1.5873019523659646, 1.481443452218515, 0.035267253445844166, 3.5078627681981467, 0.0, 1.3064455588117678, 0.6255549374186772, 1.4612885120931256, 0.7200010924846098, 0.7852613028241368, 0.0, 1.5853368991127177, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.592994194049528, 0.517934533785683, 0.0, 2.249017733367533], [1.1545921920934599, 4.908028693841098, 4.34443472841557, 5.820144374642269, 6.025634757695215, 2.381831607852115, 0.0, 2.377121340600691, 0.0, 0.9913609110736527, 0.615520657333571, 0.8826816199582865, 0.5819116806771465, 0.47915923195599625, 0.07053450689168829, 0.9902715169102074, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40774242228737384, 0.27111609473563836, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.19862916101994346, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.5307823834991117], [1.3201308746463474, 7.148757902113311, 4.880203155181922, 5.436510669697369, 2.437572460004789, 5.482264080886846, 0.03526725344584389, 2.8094937643654894, 0.0, 1.0857135301134615, 0.7219477861724435, 1.1756073621155918, 0.7397826311412653, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4197815182120356, 0.4240088097719355, 0.0, 0.6226027366123915, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.6604618023452291], [0.0, 0.03526725344584389, 0.0, 0.0, 0.07053450689168837, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.03526725344584393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.061008461837688044, 4.611476037194969, 4.121407211606545, 9.399634121712493, 2.036910740405501, 2.426862243522195, 0.0, 12.668009234365497, 0.0, 1.0960531408672098, 0.827813864855967, 2.514410421937351, 0.7407881980057558, 0.6207892044261079, 0.0, 2.964896695318166, 0.0, 0.5853501479714571, 0.5171074490201772, 1.142170631550324, 0.6723905666797703, 0.6022249069870969, 0.0, 1.4681706728082267, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 2.1880104556823405], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.3256155008155575, 1.8919632923713694, 2.562782057748297, 0.6555618744228082, 0.9234388654998725, 0.0, 1.2491994679187797, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.08611706908901777, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.5690844772021891], [0.1270846921973476, 1.9209585808144582, 1.6944617490808283, 1.9529204743691084, 0.5562096106810701, 0.5672283406972923, 0.0, 0.7128423894381034, 0.0, 0.1573261439337848, 0.19303016908204845, 0.48156768273402656, 0.13145164696706657, 0.17223413817803668, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.03526725344584399, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.18265217551481114], [0.9166830150313403, 2.2922957019164083, 1.8105890696148943, 4.129868076007786, 0.6102523685844544, 0.7656399917847853, 0.0, 1.204942862986383, 0.0, 0.4205345033919183, 0.18285583903340205, 0.9950038730376165, 0.3108589175095745, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.10568443093039473, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.2136094935250671, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.42605213205066145], [0.09953295742310325, 1.4888918977344632, 0.9829796133302519, 1.2882419830072576, 0.42348545260492076, 1.1016406369062917, 0.0, 0.6549204625063324, 0.035267253445844, 0.3998537283987718, 0.17931887345964864, 0.15341333593459056, 0.2657722148209997, 0.0862969670688439, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.15296789571889574], [0.3784738003113154, 1.7951983945206216, 1.0417153918424131, 1.3890103028274345, 0.3310564093578771, 0.8450754776983171, 0.0, 0.5120896345906986, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.0610084618376882, 0.2821380275667512, 0.0, 0.049844324025377806, 0.0, 0.07882063461243624, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.2045452176103844], [0.0, 0.07053450689168829, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.9102988950743605, 1.6804970644523678, 3.591770105207127, 0.8561985728484334, 0.884852325133488, 0.0, 3.0410346942172697, 0.0, 0.25271302472919566, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5292051830240878, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14920072231784745, 0.07053450689168789, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.5095332842678908], [0.0, 0.0, 0.03526725344584406, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.3847319384421342, 0.6881640013330474, 1.0714601159274395, 0.3837435482682072, 0.4708928552986611, 0.03526725344584393, 0.37408022142233566, 0.0, 0.32611005994980435, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901785], [0.035267253445844256, 0.7227249954660371, 0.6545556900545693, 0.764009708905338, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.03526725344584384, 0.03526725344584419, 0.0, 0.06100846183768801], [0.5375182489648086, 1.087621640976931, 1.03777766707837, 1.4641903739531126, 0.3501968966266702, 0.46255922152984974, 0.0, 0.8074791247495402, 0.0, 0.17591360903495365, 0.17950904055170688, 0.27002706350574374, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.035267253445844166, 0.03526725344584394, 0.16522108242054565, 0.0, 0.07882063461243619, 0.0, 0.06100846183768793, 0.0, 0.0, 0.0, 0.07053450689168847, 0.0, 0.035267253445843846, 0.0, 0.09931458050997255], [0.03526725344584419, 0.9967806879392012, 0.526228191986982, 0.7060505009675876, 0.2601398714280752, 0.2711160947356388, 0.0, 0.2220601858100623, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.03526725344584419], [0.2565440277854765, 0.907373119036394, 0.6509205481874648, 0.713049039743696, 0.2738537045298144, 0.31206886765491826, 0.0, 0.37610615783645407, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.049844324025378375], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0877228756317716, 0.8717968308186508, 1.8174447063466455, 0.4068018738819371, 0.5464005171597189, 0.0, 1.1679907631196826, 0.0, 0.21305700411948192, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.304879576549922, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.09295869293410507], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6723236758014889, 0.421830611405086, 0.6084402579242185, 0.21936197425475323, 0.396871650229194, 0.0, 0.27355906750344045, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.049844324025378264, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.06100846183768806], [0.07053450689168825, 0.3540068240020386, 0.3381202853201767, 0.4908907044138981, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0352672534458439, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4001251337669047, 0.6268650378554449, 0.41886800390275897, 1.0826137350261194, 0.2848568208032502, 0.36113282065740643, 0.0, 0.24265727439737708, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.061008461837688405], [0.0, 0.4156007891581909, 0.12649757979606965, 0.5688146222788149, 0.1891180314569826, 0.16505203903612162, 0.0, 0.3465733511849521, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.061008461837688065], [0.07882063461243573, 0.3579841864799267, 0.3084247776473652, 0.30724590663789775, 0.11134392501747144, 0.226738996961806, 0.0, 0.3779817644814471, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.06100846183768818], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3072459066378995, 1.1161589380431813, 0.7966530951379518, 1.7878611020040296, 0.5500525535738129, 0.7102203423466364, 0.0, 1.3603633021177368, 0.0, 0.31061436477554316, 0.3317676952571892, 0.5727949508848241, 0.2480239721320222, 0.2527130247291949, 0.0, 0.6907126114890166, 0.03526725344584406, 0.20133562700562752, 0.18885543578200434, 0.29376065352653785, 0.11650326837884503, 0.15685226892985182, 0.0, 0.3497892373821809, 0.0, 0.11114875584898999, 0.11671605991392227, 0.19806620525101934, 0.06100846183768915, 0.1450689202333601, 0.0, 0.9435937081389504]]</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.28059999999999</v>
+        <v>71.9555</v>
       </c>
       <c r="C4" t="n">
-        <v>11.87</v>
+        <v>14.21</v>
       </c>
       <c r="D4" t="n">
-        <v>3.2024</v>
+        <v>3.3443</v>
       </c>
       <c r="E4" t="n">
-        <v>19.98</v>
+        <v>22.09</v>
       </c>
       <c r="F4" t="n">
-        <v>5.528600000000001</v>
+        <v>5.852799999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0158</v>
+        <v>0.0132</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3057</v>
+        <v>2.391</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>129.89</v>
       </c>
       <c r="J4" t="n">
-        <v>320.52</v>
+        <v>322.04</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6004</v>
+        <v>5.9763</v>
       </c>
       <c r="L4" t="n">
-        <v>3.0927</v>
+        <v>2.840900000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>5.157</v>
+        <v>4.523599999999999</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[78.7, 23.4, 115.33, 46.89, 11.02, 20.77, 0.23, 12.85, 2.67, 3.49, 1.34, 0.15, 2.14, 0.04, 0.26, 0.12, 0.03, 0.02, 0.0, 0.04, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[80.74, 21.79, 110.24, 46.53, 12.12, 23.59, 0.66, 13.95, 2.48, 3.41, 2.4, 0.23, 1.84, 0.08, 0.4, 0.17, 0.06, 0.13, 0.0, 0.08, 0.0, 0.02, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.02, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[59.42, 0.26, 54.42, 0.44, 60.73, 10.56, 1.22, 52.33, 0.73, 58.65, 0.45, 21.31]</t>
+          <t>[25.73, 25.33, 26.48, 28.39, 26.39, 23.06, 26.3, 28.67, 22.64, 28.56, 27.23, 33.26]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[8.58, 60.9, 149.68, 21.88, 36.68, 3.37, 8.97, 2.71, 7.66, 1.56, 3.1, 1.08, 3.69, 0.83, 2.29, 0.78, 3.64, 0.44, 0.64, 0.11, 0.57, 0.05, 0.11, 0.03, 0.18, 0.04, 0.05, 0.01, 0.07, 0.02, 0.03, 0.02]</t>
+          <t>[8.52, 80.82, 141.27, 18.22, 36.09, 3.4, 9.14, 2.04, 6.67, 1.04, 2.96, 0.85, 3.18, 0.61, 1.56, 0.64, 1.84, 0.23, 0.65, 0.15, 0.51, 0.11, 0.24, 0.09, 0.29, 0.01, 0.16, 0.0, 0.11, 0.01, 0.04, 0.01]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.6, 107.15, 49.41, 76.05, 14.23, 13.63, 0.0, 20.07, 0.01, 4.67, 2.77, 5.28, 1.65, 2.37, 0.0, 5.01, 0.0, 1.77, 0.81, 2.02, 0.72, 1.22, 0.0, 2.14, 0.0, 0.67, 0.45, 0.83, 0.33, 0.41, 0.0, 3.93, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[7.83, 118.17, 46.86, 72.37, 14.69, 15.36, 0.01, 18.08, 0.0, 4.51, 2.34, 4.1, 1.76, 1.93, 0.0, 4.22, 0.0, 1.35, 0.66, 1.41, 0.65, 0.55, 0.0, 1.48, 0.0, 0.54, 0.23, 0.45, 0.2, 0.28, 0.0, 1.63, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[15.34, 0.01, 15.98, 0.03, 4.65, 0.46, 0.01, 4.03, 0.04, 10.57, 0.12, 8.02], [0.03, 0.05, 0.05, 0.05, 0.01, 0.01, 0.0, 0.0, 0.0, 0.03, 0.03, 0.0], [16.12, 0.05, 12.56, 0.04, 17.39, 0.53, 0.11, 3.14, 0.01, 2.67, 0.03, 1.58], [0.05, 0.05, 0.07, 0.11, 0.01, 0.08, 0.0, 0.0, 0.0, 0.01, 0.02, 0.01], [5.22, 0.02, 18.56, 0.05, 14.29, 3.83, 0.37, 11.7, 0.03, 5.34, 0.01, 1.12], [0.31, 0.0, 0.54, 0.1, 4.11, 2.85, 0.01, 2.03, 0.08, 0.45, 0.01, 0.04], [0.01, 0.0, 0.1, 0.0, 0.43, 0.0, 0.31, 0.12, 0.01, 0.19, 0.0, 0.04], [3.68, 0.01, 3.25, 0.01, 12.51, 2.17, 0.21, 14.18, 0.04, 15.28, 0.03, 0.82], [0.09, 0.01, 0.02, 0.0, 0.05, 0.05, 0.0, 0.04, 0.3, 0.09, 0.04, 0.03], [11.64, 0.01, 2.56, 0.01, 5.99, 0.44, 0.15, 15.24, 0.12, 16.73, 0.02, 5.6], [0.16, 0.02, 0.0, 0.04, 0.0, 0.01, 0.0, 0.02, 0.05, 0.04, 0.1, 0.01], [6.58, 0.03, 0.69, 0.0, 0.95, 0.1, 0.05, 1.62, 0.05, 7.08, 0.04, 4.02]]</t>
+          <t>[[6.32, 0.57, 3.97, 2.24, 0.37, 1.34, 0.08, 1.67, 0.61, 2.32, 4.91, 1.23], [0.41, 6.59, 0.78, 4.87, 2.2, 0.37, 1.38, 0.07, 1.38, 0.37, 1.97, 4.9], [4.39, 1.12, 6.35, 0.91, 4.12, 1.47, 0.86, 1.61, 0.05, 1.83, 0.51, 3.21], [2.32, 5.36, 1.16, 7.87, 1.62, 3.67, 1.76, 0.45, 1.46, 0.07, 1.73, 0.82], [0.46, 2.0, 5.01, 1.76, 6.35, 0.5, 4.53, 1.82, 0.62, 1.29, 0.06, 1.89], [1.42, 0.47, 1.87, 4.2, 0.74, 5.87, 0.55, 4.03, 2.0, 0.41, 1.38, 0.07], [0.06, 1.49, 1.12, 2.21, 5.29, 0.6, 6.73, 1.11, 3.23, 1.99, 0.61, 1.75], [1.98, 0.06, 1.14, 0.41, 1.84, 4.66, 1.44, 8.4, 0.51, 5.16, 1.88, 1.08], [0.45, 1.39, 0.04, 1.59, 0.57, 2.15, 3.69, 0.56, 5.15, 0.56, 4.3, 2.08], [1.94, 0.54, 1.46, 0.06, 1.51, 0.64, 2.3, 5.92, 0.56, 6.42, 0.94, 6.23], [4.74, 1.43, 0.52, 1.49, 0.03, 1.7, 0.71, 1.96, 4.74, 1.12, 7.68, 1.05], [1.18, 4.24, 2.96, 0.69, 1.68, 0.03, 2.23, 1.0, 2.24, 6.89, 1.13, 8.86]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.05, 0.6, 0.37, 1.14, 0.04, 0.06, 0.0, 0.16, 0.0, 0.02, 0.05, 0.04, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02], [0.53, 64.38, 12.6, 12.29, 2.06, 4.14, 0.0, 2.44, 0.0, 1.7, 0.79, 1.06, 0.45, 0.91, 0.0, 0.88, 0.0, 0.55, 0.21, 0.33, 0.06, 0.34, 0.0, 0.36, 0.0, 0.2, 0.05, 0.07, 0.05, 0.08, 0.0, 0.31], [0.1, 12.01, 19.45, 6.32, 2.63, 2.35, 0.0, 2.02, 0.0, 0.63, 0.56, 0.5, 0.2, 0.31, 0.0, 0.5, 0.0, 0.26, 0.12, 0.23, 0.17, 0.09, 0.0, 0.25, 0.0, 0.07, 0.06, 0.04, 0.06, 0.04, 0.0, 0.29], [1.41, 11.55, 5.39, 34.89, 3.04, 2.5, 0.0, 6.66, 0.01, 1.14, 0.59, 1.77, 0.43, 0.49, 0.0, 1.68, 0.0, 0.42, 0.13, 0.73, 0.14, 0.34, 0.0, 0.52, 0.0, 0.25, 0.09, 0.37, 0.06, 0.06, 0.0, 1.15], [0.06, 2.07, 2.46, 2.92, 3.35, 0.79, 0.0, 1.03, 0.0, 0.24, 0.08, 0.14, 0.06, 0.12, 0.0, 0.2, 0.0, 0.06, 0.04, 0.07, 0.09, 0.04, 0.0, 0.05, 0.0, 0.02, 0.03, 0.05, 0.03, 0.04, 0.0, 0.17], [0.09, 3.07, 2.34, 2.49, 0.85, 1.49, 0.0, 1.12, 0.0, 0.26, 0.14, 0.16, 0.14, 0.13, 0.0, 0.29, 0.0, 0.1, 0.03, 0.13, 0.05, 0.13, 0.0, 0.15, 0.0, 0.05, 0.01, 0.06, 0.0, 0.06, 0.0, 0.25], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09, 2.5, 1.6, 5.82, 0.8, 0.59, 0.0, 3.98, 0.0, 0.21, 0.16, 0.7, 0.2, 0.08, 0.0, 0.79, 0.0, 0.15, 0.17, 0.23, 0.17, 0.11, 0.0, 0.53, 0.0, 0.06, 0.07, 0.14, 0.07, 0.02, 0.0, 0.78], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.93, 0.74, 1.06, 0.18, 0.23, 0.0, 0.11, 0.0, 0.03, 0.07, 0.09, 0.03, 0.06, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.03, 0.0, 0.0, 0.01, 0.0, 0.01], [0.01, 0.87, 0.62, 0.56, 0.1, 0.14, 0.0, 0.14, 0.0, 0.04, 0.02, 0.06, 0.02, 0.04, 0.0, 0.05, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.03], [0.13, 1.26, 0.72, 1.84, 0.09, 0.13, 0.0, 0.52, 0.0, 0.06, 0.06, 0.12, 0.02, 0.04, 0.0, 0.1, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.12], [0.01, 0.62, 0.18, 0.44, 0.13, 0.06, 0.0, 0.09, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.01, 0.96, 0.27, 0.52, 0.07, 0.09, 0.0, 0.12, 0.0, 0.01, 0.01, 0.08, 0.02, 0.04, 0.0, 0.04, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.03], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 1.08, 0.61, 1.63, 0.3, 0.21, 0.0, 0.54, 0.0, 0.04, 0.05, 0.14, 0.03, 0.02, 0.0, 0.08, 0.0, 0.03, 0.0, 0.04, 0.01, 0.01, 0.0, 0.04, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.06], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.77, 0.22, 0.31, 0.04, 0.1, 0.0, 0.04, 0.0, 0.03, 0.01, 0.03, 0.02, 0.0, 0.0, 0.05, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.04], [0.0, 0.19, 0.2, 0.13, 0.05, 0.02, 0.0, 0.08, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.02, 0.0, 0.02], [0.03, 0.54, 0.28, 0.59, 0.07, 0.09, 0.0, 0.12, 0.0, 0.02, 0.05, 0.04, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.06], [0.0, 0.24, 0.11, 0.14, 0.06, 0.05, 0.0, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.47, 0.13, 0.18, 0.02, 0.12, 0.0, 0.05, 0.0, 0.02, 0.01, 0.04, 0.0, 0.01, 0.0, 0.03, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.46, 0.29, 0.59, 0.12, 0.07, 0.0, 0.22, 0.0, 0.02, 0.03, 0.02, 0.0, 0.02, 0.0, 0.04, 0.0, 0.04, 0.0, 0.02, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.1], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2, 0.08, 0.16, 0.0, 0.04, 0.0, 0.05, 0.0, 0.0, 0.01, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01], [0.0, 0.13, 0.1, 0.08, 0.04, 0.03, 0.0, 0.01, 0.0, 0.01, 0.02, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0], [0.02, 0.18, 0.05, 0.36, 0.01, 0.0, 0.0, 0.08, 0.0, 0.01, 0.02, 0.03, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.02], [0.0, 0.07, 0.06, 0.07, 0.01, 0.02, 0.0, 0.02, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.12, 0.06, 0.08, 0.03, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.53, 0.28, 1.19, 0.09, 0.25, 0.0, 0.38, 0.0, 0.08, 0.02, 0.15, 0.01, 0.04, 0.0, 0.15, 0.0, 0.04, 0.04, 0.06, 0.0, 0.05, 0.0, 0.05, 0.0, 0.01, 0.02, 0.05, 0.02, 0.03, 0.0, 0.37]]</t>
+          <t>[[0.08, 3.19, 1.59, 1.89, 0.13, 0.16, 0.0, 0.42, 0.0, 0.04, 0.02, 0.03, 0.02, 0.02, 0.0, 0.11, 0.0, 0.0, 0.02, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.04], [4.06, 65.2, 14.84, 15.21, 3.57, 5.35, 0.01, 2.76, 0.0, 1.59, 0.58, 0.83, 0.51, 0.69, 0.0, 0.72, 0.0, 0.43, 0.17, 0.25, 0.08, 0.12, 0.0, 0.25, 0.0, 0.12, 0.06, 0.05, 0.04, 0.09, 0.0, 0.2], [0.12, 14.51, 13.65, 9.08, 1.94, 1.71, 0.0, 2.26, 0.0, 0.73, 0.5, 0.45, 0.17, 0.22, 0.0, 0.43, 0.0, 0.14, 0.04, 0.14, 0.1, 0.02, 0.0, 0.29, 0.0, 0.02, 0.0, 0.02, 0.02, 0.01, 0.0, 0.11], [2.81, 14.15, 7.85, 27.37, 3.1, 2.84, 0.0, 5.46, 0.0, 0.99, 0.6, 1.54, 0.52, 0.62, 0.0, 1.6, 0.0, 0.34, 0.18, 0.5, 0.13, 0.18, 0.0, 0.35, 0.0, 0.2, 0.09, 0.17, 0.05, 0.07, 0.0, 0.45], [0.09, 3.49, 1.53, 3.36, 2.54, 0.9, 0.0, 1.07, 0.0, 0.23, 0.2, 0.26, 0.1, 0.04, 0.0, 0.25, 0.0, 0.08, 0.09, 0.08, 0.06, 0.03, 0.0, 0.07, 0.0, 0.03, 0.02, 0.02, 0.02, 0.01, 0.0, 0.1], [0.13, 4.45, 1.83, 2.86, 1.07, 2.38, 0.0, 0.99, 0.0, 0.27, 0.13, 0.17, 0.06, 0.17, 0.0, 0.14, 0.0, 0.14, 0.01, 0.04, 0.12, 0.02, 0.0, 0.1, 0.0, 0.07, 0.01, 0.06, 0.02, 0.04, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.08, 3.47, 1.83, 4.66, 0.81, 0.85, 0.0, 3.0, 0.0, 0.23, 0.13, 0.43, 0.19, 0.07, 0.0, 0.67, 0.0, 0.11, 0.09, 0.28, 0.12, 0.11, 0.0, 0.31, 0.0, 0.09, 0.04, 0.07, 0.01, 0.03, 0.0, 0.37], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 2.07, 0.56, 0.82, 0.27, 0.23, 0.0, 0.21, 0.0, 0.09, 0.02, 0.01, 0.05, 0.0, 0.0, 0.02, 0.0, 0.03, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.04], [0.03, 0.84, 0.49, 0.49, 0.14, 0.1, 0.0, 0.14, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0], [0.11, 1.32, 0.41, 1.38, 0.16, 0.12, 0.0, 0.24, 0.0, 0.07, 0.03, 0.08, 0.01, 0.06, 0.0, 0.05, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01], [0.02, 0.67, 0.17, 0.42, 0.16, 0.1, 0.0, 0.1, 0.0, 0.04, 0.0, 0.02, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0], [0.01, 0.94, 0.29, 0.44, 0.05, 0.06, 0.0, 0.07, 0.0, 0.03, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.08, 0.93, 0.55, 1.49, 0.18, 0.15, 0.0, 0.4, 0.0, 0.06, 0.01, 0.06, 0.02, 0.01, 0.0, 0.04, 0.0, 0.01, 0.01, 0.02, 0.01, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.06], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.63, 0.17, 0.28, 0.04, 0.05, 0.0, 0.05, 0.0, 0.01, 0.0, 0.02, 0.03, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.01, 0.25, 0.1, 0.14, 0.05, 0.02, 0.0, 0.06, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 0.45, 0.2, 0.48, 0.05, 0.02, 0.0, 0.08, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.01, 0.2, 0.05, 0.18, 0.07, 0.02, 0.0, 0.03, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01], [0.0, 0.15, 0.09, 0.17, 0.05, 0.01, 0.0, 0.06, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.32, 0.19, 0.4, 0.12, 0.07, 0.0, 0.19, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.01, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16, 0.07, 0.18, 0.03, 0.02, 0.0, 0.05, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.02, 0.04, 0.02, 0.01, 0.0, 0.02, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.03, 0.19, 0.02, 0.02, 0.0, 0.03, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.02], [0.0, 0.04, 0.02, 0.05, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.07, 0.03, 0.09, 0.02, 0.05, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06, 0.2, 0.15, 0.41, 0.05, 0.08, 0.0, 0.27, 0.0, 0.02, 0.05, 0.06, 0.03, 0.0, 0.0, 0.08, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.08]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.141920692824693</v>
+        <v>5.348481536847631</v>
       </c>
       <c r="C5" t="n">
-        <v>2.105492816420897</v>
+        <v>2.499179865475873</v>
       </c>
       <c r="D5" t="n">
-        <v>0.56753347037862</v>
+        <v>0.5816463788247976</v>
       </c>
       <c r="E5" t="n">
-        <v>3.101548000595831</v>
+        <v>4.3591168830395</v>
       </c>
       <c r="F5" t="n">
-        <v>1.231639573901391</v>
+        <v>1.212074321153616</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01855693940282179</v>
+        <v>0.01969162258423617</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2694151257817571</v>
+        <v>0.2606626171893469</v>
       </c>
       <c r="I5" t="n">
-        <v>10.60707311184381</v>
+        <v>96.13343799115893</v>
       </c>
       <c r="J5" t="n">
-        <v>5.948915867618234</v>
+        <v>5.257223601864391</v>
       </c>
       <c r="K5" t="n">
-        <v>1.77053603182765</v>
+        <v>1.619546019722811</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9626482794873734</v>
+        <v>0.8428820736022329</v>
       </c>
       <c r="M5" t="n">
-        <v>2.100790565477673</v>
+        <v>1.551644624261625</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[19.41004894378167, 23.45207879911715, 16.849364973197062, 16.897274928224373, 4.907096901427566, 6.031343133995944, 0.6301587101675262, 4.956561308003767, 2.200249985797068, 2.2560806723164846, 1.2823416081528356, 0.3840572873934308, 1.902734873806648, 0.19595917942265428, 0.5936328831862331, 0.32496153618543866, 0.1705872210923198, 0.1399999999999999, 0.0, 0.19595917942265412, 0.0, 0.09949874371066197, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[17.147956146433312, 19.362486927045296, 17.328081255580493, 12.978023732448637, 6.361257737271773, 6.2259055566238715, 1.5114231703927254, 4.7799058568135, 1.9260321908005584, 2.2454175558234146, 1.8547236990991407, 0.5264028875300744, 1.4472042012100435, 0.3059411708155671, 0.5999999999999996, 0.3756327994198591, 0.2764054992217047, 0.39127995093027673, 0.0, 0.3059411708155673, 0.0, 0.13999999999999987, 0.09949874371066197, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.1989974874213239, 0.22158519806160284, 0.0, 0.22158519806160284, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[22.12789190139901, 1.1101351269102329, 15.383224629446197, 2.155550973649197, 14.237875543774077, 17.063012629661852, 5.972570635831782, 23.163356837902402, 3.5237905726646046, 26.43988464422642, 2.2152877916875697, 23.238629477660677]</t>
+          <t>[31.709574263934858, 31.834589678524218, 27.487626307122262, 34.38892118110134, 27.46084303148758, 28.989591235476222, 28.53576703016759, 31.893903806213505, 28.67421141025504, 30.661806861305468, 32.61743552151209, 33.55402211360062]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[13.292238336713643, 62.97975865307837, 74.27164734944283, 25.381599634380805, 32.068638885989536, 3.791187149165811, 5.9623066006370395, 3.389085422352172, 5.988689339079128, 2.2464193731358364, 2.6589471600616665, 1.6714065932620952, 3.445852579551249, 1.2333288288206021, 2.2772571220659303, 1.3680643259730139, 3.664751014734833, 0.8754427451295723, 1.170640850132952, 0.39736632972611075, 0.9301075206662934, 0.25980762113533157, 0.39736632972611075, 0.17058722109231975, 0.6539113089708729, 0.19595917942265403, 0.25980762113533173, 0.09949874371066196, 0.2551470164434616, 0.1399999999999999, 0.17058722109231983, 0.13999999999999987]</t>
+          <t>[19.422399439822055, 68.45675715369522, 64.23859509671736, 15.764885029710806, 33.99561589381784, 3.805259518088089, 6.814719363260675, 2.622670394845682, 6.212978351805194, 1.4065560778013804, 2.911769221624543, 1.203120941551596, 3.5507182372021577, 0.988888264668967, 1.6871277367170516, 1.1359577456930336, 2.68968399630886, 0.5070502933634891, 0.8291561975888497, 0.38405728739343087, 0.8306021911842031, 0.371348892552543, 0.4923413450036473, 0.2861817604250837, 0.5346961754117939, 0.09949874371066196, 0.4630334761116093, 0.0, 0.3433656942677881, 0.09949874371066196, 0.19595917942265415, 0.09949874371066197]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[7.061161377563897, 93.03250775938484, 61.627444373428304, 69.05814579034107, 26.598817642895323, 10.720685612403717, 0.0, 24.191839533197967, 0.09949874371066197, 3.865371909661475, 3.0293728723945486, 5.632193178505157, 1.8513508581573626, 3.198921693321046, 0.0, 4.942661226505415, 0.0, 2.2038829370000577, 1.8149104661112052, 2.319396473223153, 1.0590561835898986, 1.9317349714699499, 0.0, 2.6609021026711988, 0.0, 1.122987088082494, 1.061838029079765, 1.4003928020380558, 1.0203430795570685, 0.9705153270299229, 0.0, 7.013208965944192, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[16.0225185286209, 81.4520785492918, 51.35523731811585, 60.727202306709295, 21.915152292420885, 16.298171676602255, 0.09949874371066193, 22.464496433261086, 0.0, 4.455322659471476, 2.62, 4.260281680828157, 2.083842604420977, 2.2147460351019923, 0.0, 5.181852950441568, 0.0, 1.7965244223221684, 1.0021975853094036, 1.655868352255094, 1.2519984025548925, 0.8529361054615989, 0.0, 1.8787229705307806, 0.0, 0.9210863151735569, 0.48692915295759415, 0.9313968005098581, 0.5477225575051659, 0.6493073232299174, 0.0, 3.1706623913624083, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[13.202439168577904, 0.09949874371066196, 6.1627591223412255, 0.2215851980616029, 2.554897258208244, 0.9210863151735564, 0.09949874371066196, 3.5452926536465226, 0.19595917942265412, 6.440892795257503, 0.5528109984434089, 8.155954879718252], [0.17058722109232005, 0.40926763859362364, 0.40926763859362286, 0.4092676385936236, 0.09949874371066195, 0.09949874371066195, 0.0, 0.0, 0.0, 0.2215851980616028, 0.22158519806160287, 0.0], [6.834149544749513, 0.217944947177034, 7.211546297431641, 0.2416609194718915, 6.858418184975307, 1.0435995400535596, 0.5982474404458398, 2.4413930449642893, 0.09949874371066196, 2.1543212388128192, 0.2984962311319856, 2.5580461293729635], [0.2598076211353321, 0.32787192621509936, 0.3241913015489466, 0.6913031173081725, 0.09949874371066195, 0.5418486873657621, 0.0, 0.0, 0.0, 0.09949874371066199, 0.13999999999999985, 0.09949874371066195], [2.7039970414184995, 0.13999999999999985, 6.412986823625947, 0.25980762113533173, 7.550225162205428, 6.043268982926377, 2.0379156017853166, 6.545991139621255, 0.1705872210923198, 3.6172365142467533, 0.09949874371066197, 1.698705389406885], [0.7575618786607468, 0.0, 0.9635351576356732, 0.6557438524301987, 6.454293144876519, 6.31090326340057, 0.09949874371066199, 3.3777359281033212, 0.46216880033165303, 0.8760707733967619, 0.09949874371066199, 0.2416609194718912], [0.09949874371066193, 0.0, 0.4795831523312725, 0.0, 2.0310342193079918, 0.0, 1.906279098138565, 0.8280096617793767, 0.09949874371066196, 0.9348261870529735, 0.0, 0.24166091947189108], [3.2183225444321146, 0.09949874371066193, 2.1880356487041066, 0.09949874371066195, 6.716390399611981, 3.682539884373284, 0.8519976525789259, 12.38820406677255, 0.19595917942265395, 7.75510154672394, 0.17058722109232005, 1.0332473082471587], [0.34914180500192254, 0.09949874371066196, 0.13999999999999985, 0.0, 0.21794494717703367, 0.21794494717703358, 0.0, 0.2416609194718911, 2.080865204668476, 0.28618176042508364, 0.31368774282716216, 0.22158519806160337], [6.731300023026755, 0.09949874371066193, 2.1039011383617825, 0.09949874371066199, 4.2296453752058225, 0.8284926070883196, 0.6837397165588678, 7.835968351135678, 0.4069397989875162, 17.201078454562087, 0.13999999999999987, 7.058328414008518], [0.7578918128598551, 0.1989974874213239, 0.0, 0.24166091947189106, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.2958039891549803, 0.2416609194718911, 0.6403124237432836, 0.09949874371066195], [8.229434974528933, 0.17058722109232008, 1.383437747063453, 0.0, 1.608570794214541, 0.3872983346207416, 0.3278719262150993, 2.008880285133984, 0.32787192621509936, 7.900227844815616, 0.3979949748426478, 6.959856320356044]]</t>
+          <t>[[9.797836495880095, 1.9912558851137157, 7.22004847629156, 5.308709824430036, 0.9965440281292135, 2.3031283073246267, 0.27129319932501084, 2.8250840695455426, 1.8433393610510242, 5.732154917655312, 8.77165320791925, 3.7652489957504756], [1.3348782716038203, 10.882182685472605, 2.313352545549422, 9.228927348289181, 5.226853738148797, 1.4188375523646104, 2.053192635872242, 0.25514701644346155, 2.2661862235924053, 1.2700787377166813, 4.327713021908919, 7.880989785553594], [7.735496105615984, 3.502227862375606, 9.141526130794578, 3.6168909300668672, 6.261437534624139, 4.050814732865478, 2.172648153751545, 2.257852962440203, 0.29580398915498074, 2.649735835890061, 1.3892084076912283, 5.845160391298084], [5.513401853665302, 9.716501427983225, 3.740908980448477, 13.842438369015776, 4.943237805325579, 6.7779864266609415, 4.1475776062661, 1.4924811556599262, 2.3808401878328582, 0.2917190429162964, 2.5994422478678003, 1.9306993551560523], [1.3814485151463305, 4.3886216514983385, 7.087305552888207, 5.263306945257899, 8.903229751051024, 1.4177446878757824, 7.243555756670895, 3.485340729397918, 1.6600000000000015, 1.9094239969163482, 0.34117444218464005, 2.633989369758351], [2.3882210952924767, 1.8025260053602552, 4.364985681534364, 7.7884529914483025, 2.110071088849851, 9.035103762547502, 1.813146436446875, 6.802139369345496, 5.5874860178795975, 1.5562454819211535, 2.382351779229929, 0.32419130154894593], [0.2764054992217047, 2.5238660820257484, 2.899241280059321, 5.012574188977164, 8.092335880325281, 1.989974874213241, 9.498268263215149, 2.5957465207527455, 5.6565979174765415, 4.109732351382508, 1.6055840058994097, 2.7690250992000776], [3.3286033106995485, 0.27640549922170493, 1.7379298029552286, 1.1924344845734705, 3.520568135968967, 7.577888888074309, 3.1283222340417582, 13.112589370524796, 1.4106381534610493, 8.16176451510334, 4.072542203587338, 2.827295527531565], [1.451723114095797, 2.4285592436669106, 0.19595917942265423, 2.705900959015314, 1.5508384828859534, 6.190920771581557, 6.652360483317186, 1.645113977814303, 8.304667362393271, 1.4987995196156154, 7.873372847769877, 4.362751425419511], [4.745144887145178, 1.8023318229449303, 2.459349507491768, 0.2764054992217048, 2.25164384395046, 1.752255689104762, 4.838388161361177, 9.223535114043855, 1.6811900546934015, 9.034578020029493, 3.9289184262338632, 9.979834667969207], [8.356578247105688, 3.281021182497912, 1.4246403054806491, 2.3302145823936473, 0.2215851980616032, 2.7874719729532695, 1.6691015547293693, 4.451786158386315, 8.551748359253795, 4.143138906674506, 11.697760469423201, 2.6846787517317585], [4.013427462904988, 6.748510946868209, 5.278105720805523, 1.7532541173486502, 2.645297714813968, 0.17058722109232, 3.0392597783012874, 2.3664319132398464, 4.567537629839515, 10.656354911507032, 2.9245683442176538, 12.449112418160576]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.2598076211353319, 2.167948338867882, 0.9864583113340367, 4.289568742892463, 0.24166091947189125, 0.4199999999999995, 0.0, 0.6280127387243034, 0.0, 0.13999999999999993, 0.2598076211353318, 0.19595917942265415, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.19899748742132392], [1.9516915739942093, 77.74519663619098, 17.330320250935927, 12.699838581651337, 2.6450708875188966, 4.440765699741432, 0.0, 2.3635566420122034, 0.0, 2.317326045251293, 1.3877679921370134, 1.8858419870180014, 0.8411301920630365, 2.044969437424434, 0.0, 1.2351518125315608, 0.0, 1.0523782589924588, 0.7251896303726357, 0.7078841713161834, 0.23748684174075824, 0.9297311439335567, 0.0, 0.7939773296511692, 0.0, 0.748331477354788, 0.21794494717703375, 0.29171904291629636, 0.25980762113533157, 0.365513337649941, 0.0, 0.8682741502544012], [0.47958315233127224, 17.016165843103426, 35.8902145438001, 8.9731599785137, 4.542367224256532, 3.9834030677299035, 0.0, 3.313547947442441, 0.0, 1.2054459755625708, 1.3290598180668924, 1.004987562112089, 0.4472135954999576, 0.7168681887209112, 0.0, 1.1958260743101399, 0.0, 0.7158212067269308, 0.5528109984434094, 0.6301587101675266, 0.44844174649557345, 0.31921779399024774, 0.0, 0.7533259586659682, 0.0, 0.2917190429162964, 0.2764054992217048, 0.2416609194718911, 0.2764054992217047, 0.19595917942265423, 0.0, 0.8636550237218577], [5.190558736783547, 11.65536357219285, 7.683612431662595, 53.204115442322696, 6.267248199967828, 3.116087290176577, 0.0, 9.901737221316269, 0.09949874371066197, 1.612575579624099, 0.8954886933959584, 2.873517008823854, 0.7906326580656782, 0.7140728254176876, 0.0, 2.288580345978703, 0.0, 0.7769169839822015, 0.46162755550335144, 1.3027279071241242, 0.37469987990390413, 0.6666333324999586, 0.0, 1.0342146779078316, 0.0, 0.5545268253204708, 0.31921779399024763, 0.87926105338517, 0.23748684174075838, 0.2764054992217049, 0.0, 2.5975950415721063], [0.27640549922170443, 2.7577345775110413, 3.907480006346802, 6.105210889068453, 13.863891949954017, 2.1600694433281538, 0.0, 2.3556527757715053, 0.0, 0.5122499389946282, 0.3059411708155672, 0.400499687890016, 0.23748684174075818, 0.35440090293338716, 0.0, 0.8246211251235325, 0.0, 0.2764054992217047, 0.19595917942265412, 0.2917190429162965, 0.37669616403674794, 0.1959591794226542, 0.0, 0.2598076211353321, 0.0, 0.13999999999999987, 0.17058722109231986, 0.21794494717703383, 0.17058722109232, 0.24166091947189117, 0.0, 0.5301886456724626], [0.40236799077461427, 3.2596165418650087, 3.9955475219298786, 3.0016495464993915, 2.3425413550244953, 2.0371303345637957, 0.0, 1.955914108543624, 0.0, 0.610245852095694, 0.374699879903904, 0.39293765408777015, 0.4004996878900159, 0.4160528812542943, 0.0, 0.5346961754117939, 0.0, 0.3872983346207416, 0.17058722109231972, 0.3363034344160045, 0.21794494717703375, 0.3912799509302768, 0.0, 0.3840572873934308, 0.0, 0.21794494717703394, 0.09949874371066196, 0.27640549922170476, 0.0, 0.27640549922170476, 0.0, 0.6224949798994366], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.31921779399024747, 2.6739483914241875, 2.7640549922170496, 8.106022452473223, 1.8330302779823338, 1.3645145656972664, 0.0, 10.521387741167985, 0.0, 0.738850458482635, 0.5425863986500216, 2.046948949045873, 0.6164414002968973, 0.30594117081556715, 0.0, 2.2463080821650445, 0.0, 0.40926763859362286, 0.5301886456724627, 0.5806031346797916, 0.4702127178203501, 0.34336569426778807, 0.0, 1.2202868515230347, 0.0, 0.23748684174075835, 0.45287967496896964, 0.400499687890016, 0.3536947836765472, 0.13999999999999987, 0.0, 2.109881513260876], [0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.50701017149911, 1.1629273408085306, 1.6175289796476608, 0.49759421218498884, 0.661135387042624, 0.0, 0.371348892552543, 0.0, 0.17058722109231983, 0.2551470164434615, 0.3192177939902477, 0.17058722109231977, 0.27640549922170465, 0.0, 0.09949874371066196, 0.0, 0.2215851980616031, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.17058722109231986, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199], [0.09949874371066196, 1.418837552364611, 1.302152064852642, 0.909065454189081, 0.4123105625617661, 0.3469870314579495, 0.0, 0.4694677837722203, 0.0, 0.19595917942265412, 0.1399999999999999, 0.2374868417407583, 0.13999999999999987, 0.2416609194718911, 0.0, 0.21794494717703367, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.0, 0.17058722109231975], [0.4616275555033515, 2.066978471102204, 1.1496086290559933, 3.0453899586095696, 0.3192177939902476, 0.39127995093027695, 0.0, 1.4105318146004362, 0.0, 0.31048349392520075, 0.23748684174075815, 0.43081318457076007, 0.13999999999999987, 0.19595917942265403, 0.0, 0.3605551275463988, 0.0, 0.19899748742132392, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.5344155686354947], [0.09949874371066199, 1.0077698149875296, 0.4093897898091748, 0.886791971095815, 0.43943145085439644, 0.2764054992217046, 0.0, 0.31921779399024724, 0.0, 0.09949874371066197, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.13999999999999987, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.09949874371066199, 1.9334942461771134, 0.6611353870426239, 0.7807688518377256, 0.3241913015489461, 0.3491418050019221, 0.0, 0.35440090293338716, 0.0, 0.09949874371066196, 0.09949874371066195, 0.30594117081556665, 0.13999999999999987, 0.19595917942265428, 0.0, 0.19595917942265398, 0.0, 0.09949874371066195, 0.0, 0.22158519806160293, 0.0, 0.09949874371066195, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.2215851980616033], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999999, 1.3013838787997962, 1.1823282116231517, 2.6670395572619454, 0.9746794344808976, 0.5156549233741495, 0.0, 1.8023318229449319, 0.0, 0.1959591794226542, 0.21794494717703397, 0.4694677837722201, 0.1705872210923201, 0.13999999999999987, 0.0, 0.30594117081556715, 0.0, 0.17058722109231989, 0.0, 0.24166091947189142, 0.09949874371066195, 0.09949874371066199, 0.0, 0.24166091947189122, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.23748684174075832], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.2716524682475145, 0.6095900261651273, 0.627614531380528, 0.19595917942265415, 0.2999999999999999, 0.0, 0.24166091947189128, 0.0, 0.17058722109231972, 0.09949874371066199, 0.17058722109232, 0.13999999999999993, 0.0, 0.0, 0.21794494717703364, 0.0, 0.09949874371066195, 0.09949874371066195, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.195959179422654, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.19595917942265398], [0.0, 0.5602677931132581, 0.7745966692414832, 0.3648287269390938, 0.21794494717703375, 0.13999999999999993, 0.0, 0.30594117081556693, 0.0, 0.17058722109231986, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.1989974874213239, 0.0, 0.13999999999999987], [0.1705872210923198, 1.0239140588936169, 0.6645299090334459, 1.1053958566956914, 0.25514701644346155, 0.349141805001922, 0.0, 0.47497368348151675, 0.0, 0.13999999999999987, 0.2598076211353316, 0.19595917942265428, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.3411744421846398], [0.0, 0.5851495535331122, 0.39736632972611063, 0.3746998799039041, 0.4199999999999989, 0.21794494717703372, 0.0, 0.19595917942265428, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 1.0045396955820116, 0.43943145085439655, 0.4770744176750628, 0.13999999999999987, 0.40693979898751576, 0.0, 0.2598076211353316, 0.0, 0.13999999999999999, 0.09949874371066199, 0.19595917942265412, 0.0, 0.09949874371066199, 0.0, 0.22158519806160334, 0.0, 0.13999999999999987, 0.09949874371066195, 0.09949874371066199, 0.0, 0.0, 0.0, 0.17058722109231997, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.19595917942265398], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999996, 1.023914058893617, 0.621208499619894, 1.1322102278287374, 0.40693979898751614, 0.29171904291629636, 0.0, 0.7691553809211766, 0.0, 0.13999999999999987, 0.17058722109231972, 0.13999999999999985, 0.0, 0.1399999999999999, 0.0, 0.24166091947189106, 0.0, 0.1959591794226541, 0.0, 0.13999999999999987, 0.0, 0.19899748742132398, 0.0, 0.13999999999999996, 0.0, 0.0, 0.09949874371066199, 0.09949874371066193, 0.0, 0.09949874371066196, 0.0, 0.3872983346207415], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6633249580710797, 0.3059411708155667, 0.4176122603564224, 0.0, 0.19595917942265415, 0.0, 0.2179449471770336, 0.0, 0.0, 0.09949874371066199, 0.1705872210923198, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066199, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199], [0.0, 0.39127995093027695, 0.4582575694955848, 0.39191835884530846, 0.24166091947189144, 0.17058722109231975, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.1399999999999999, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 0.5546169849544816, 0.29580398915498035, 0.8064738061462389, 0.09949874371066199, 0.0, 0.0, 0.33704599092705445, 0.0, 0.09949874371066195, 0.13999999999999987, 0.17058722109232002, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.13999999999999985], [0.0, 0.2917190429162965, 0.34117444218464, 0.2917190429162965, 0.09949874371066195, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.17058722109232, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.4308131845707597, 0.34117444218464, 0.30594117081556693, 0.17058722109231972, 0.13999999999999993, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.1399999999999999, 0.0, 0.09949874371066196, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 1.4174272468102205, 0.7884161337770814, 2.633229955776745, 0.4710626285325541, 0.5361902647381804, 0.0, 1.2710625476348512, 0.0, 0.3059411708155668, 0.19899748742132392, 0.5894913061275805, 0.09949874371066196, 0.24166091947189144, 0.0, 0.5894913061275799, 0.0, 0.19595917942265423, 0.19595917942265403, 0.3693237062523878, 0.0, 0.259807621135332, 0.0, 0.2598076211353317, 0.0, 0.09949874371066196, 0.1399999999999999, 0.21794494717703364, 0.13999999999999987, 0.17058722109232002, 0.0, 1.1371455491712565]]</t>
+          <t>[[0.4399999999999997, 8.103943484501846, 3.178348627825462, 8.16442894512532, 0.4616275555033514, 0.46303347611160967, 0.0, 2.2723556059736763, 0.0, 0.19595917942265415, 0.13999999999999987, 0.17058722109231989, 0.13999999999999987, 0.1399999999999999, 0.0, 0.5271622141238882, 0.0, 0.0, 0.13999999999999993, 0.22158519806160298, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.24166091947189128], [9.669353649546588, 61.80857545680861, 16.648555492894875, 13.228979552482496, 4.927991477265357, 5.696270709859214, 0.09949874371066193, 2.4824181758922075, 0.0, 3.0400493417048344, 0.94, 1.1493911431710266, 0.8543418519538885, 1.2385071659057938, 0.0, 1.1496086290559933, 0.0, 1.0025467570143547, 0.4910193478876368, 0.5361902647381804, 0.30594117081556693, 0.32496153618543855, 0.0, 0.51720402163943, 0.0, 0.3249615361854386, 0.2374868417407583, 0.2598076211353317, 0.19595917942265415, 0.4023679907746139, 0.0, 0.6164414002968971], [0.4308131845707597, 17.046697627399855, 27.638514793671536, 14.026888464659585, 3.2119153164428234, 2.684380747956593, 0.0, 3.2050585018061697, 0.0, 1.1212047092302098, 0.9327379053088815, 0.9733961166965891, 0.42555845661906444, 0.4600000000000005, 0.0, 1.1853691408164801, 0.0, 0.42473521163190625, 0.19595917942265417, 0.46946778377222037, 0.29999999999999977, 0.13999999999999987, 0.0, 0.6825686778632607, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.13999999999999987, 0.09949874371066196, 0.0, 0.5271622141238882], [10.367926504369132, 12.398689446873004, 12.080045529715521, 46.19148298117305, 5.82494635168428, 4.314440867598026, 0.0, 7.984259514820391, 0.0, 1.4662537297480263, 1.1916375287812992, 2.836970214859506, 1.0438390680559908, 1.1115754585272204, 0.0, 2.6419689627245813, 0.0, 0.6814690014960332, 0.5173006862551023, 1.014889156509222, 0.4828043081829323, 0.43312815655415443, 0.0, 0.6224949798994367, 0.0, 0.4690415759823428, 0.2861817604250837, 0.4910193478876369, 0.2179449471770336, 0.32419130154894654, 0.0, 0.9313968005098583], [0.34914180500192216, 4.350850491570585, 2.7873105316774462, 6.831573757195335, 7.489218917884568, 2.002498439450079, 0.0, 2.974071283611071, 0.0, 0.614084684713762, 0.4898979485566351, 0.6264183905346328, 0.41231056256176596, 0.19595917942265392, 0.0, 0.653834841531101, 0.0, 0.27129319932501084, 0.3192177939902476, 0.3059411708155671, 0.2374868417407582, 0.17058722109231975, 0.0, 0.2917190429162965, 0.0, 0.17058722109232002, 0.13999999999999987, 0.13999999999999993, 0.19899748742132392, 0.09949874371066199, 0.0, 0.4123105625617663], [0.4160528812542942, 4.916045158458168, 2.7750855842658257, 4.558552401804768, 2.1783250446157028, 6.24784762938406, 0.0, 1.7691523393987296, 0.0, 0.5070502933634892, 0.3912799509302768, 0.5666568626602876, 0.27640549922170454, 0.42555845661906444, 0.0, 0.4004996878900159, 0.0, 0.40049968789001583, 0.09949874371066195, 0.24166091947189147, 0.45343136195018535, 0.13999999999999999, 0.0, 0.3316624790355398, 0.0, 0.2917190429162964, 0.09949874371066199, 0.276405499221705, 0.13999999999999993, 0.195959179422654, 0.0, 0.19595917942265423], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.36551333764994093, 2.6849767224316863, 2.5925084377876177, 7.656657234067623, 2.0134299093834866, 1.909842925478429, 0.0, 9.271461589199408, 0.0, 0.5070502933634891, 0.36482872693909385, 1.1158404903927799, 0.6276145313805277, 0.3536947836765475, 0.0, 2.1403504385964456, 0.0, 0.34336569426778807, 0.3766961640367478, 0.8376156636548777, 0.38157568056677843, 0.371348892552543, 0.0, 1.0458967444255676, 0.0, 0.31921779399024747, 0.19595917942265412, 0.2917190429162963, 0.09949874371066199, 0.17058722109231972, 0.0, 1.1802965729002177], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 3.153585261254244, 0.8404760555780273, 1.2114454176726241, 0.7596709814123471, 0.7463913182774843, 0.0, 0.5156549233741495, 0.0, 0.28618176042508375, 0.13999999999999993, 0.09949874371066196, 0.29580398915498063, 0.0, 0.0, 0.13999999999999999, 0.0, 0.17058722109231994, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.19595917942265415], [0.17058722109231994, 1.2626955294131679, 1.1179892664958813, 1.0908253755757604, 0.5102940328869232, 0.36055512754639873, 0.0, 0.44766058571198813, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0], [0.44485952839070464, 1.5354478174135386, 1.0207350292803699, 3.012573650551967, 0.5782732917920386, 0.45343136195018513, 0.0, 0.7227724399837064, 0.0, 0.3536947836765477, 0.17058722109231983, 0.4399999999999999, 0.09949874371066195, 0.276405499221705, 0.0, 0.2598076211353317, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066199], [0.13999999999999987, 1.114046677657628, 0.47021271782035, 0.7507329751649386, 0.5782732917920381, 0.4123105625617663, 0.0, 0.3872983346207415, 0.0, 0.2416609194718913, 0.0, 0.13999999999999993, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 1.5087743370033844, 0.5881326381013043, 0.8867919710958155, 0.259807621135332, 0.3104834939252004, 0.0, 0.35369478367654744, 0.0, 0.17058722109231972, 0.0, 0.09949874371066197, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4399999999999997, 1.3285706605220522, 1.2439855304624727, 2.8896193520946665, 0.6690291473471104, 0.4330127018922198, 0.0, 1.4966629547095758, 0.0, 0.2374868417407582, 0.09949874371066199, 0.23748684174075826, 0.13999999999999993, 0.09949874371066195, 0.0, 0.24166091947189133, 0.0, 0.09949874371066195, 0.09949874371066199, 0.1399999999999999, 0.09949874371066199, 0.17058722109231977, 0.0, 0.22158519806160326, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.276405499221705], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 1.2219247112649778, 0.40137264480778967, 0.5844655678480979, 0.19595917942265403, 0.25980762113533185, 0.0, 0.3278719262150997, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.17058722109231986, 0.09949874371066197, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.09949874371066199, 0.5894913061275798, 0.3316624790355398, 0.4247352116319062, 0.21794494717703378, 0.1399999999999999, 0.0, 0.27640549922170443, 0.0, 0.13999999999999993, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.25980762113533185, 0.8874119674649426, 0.5656854249492377, 1.0721940122944171, 0.29580398915498046, 0.13999999999999987, 0.0, 0.30594117081556665, 0.0, 0.13999999999999985, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.09949874371066199, 0.5477225575051656, 0.2598076211353319, 0.4770744176750624, 0.3241913015489461, 0.13999999999999993, 0.0, 0.22158519806160323, 0.0, 0.19899748742132395, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.3570714214271427, 0.3192177939902477, 0.49101934788763685, 0.25980762113533185, 0.09949874371066199, 0.0, 0.23748684174075807, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231983, 0.5635601121442144, 0.4624932431938871, 0.7874007874011804, 0.43081318457076023, 0.25514701644346166, 0.0, 0.643350604258673, 0.0, 0.09949874371066197, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.19595917942265417, 0.0, 0.0, 0.09949874371066195, 0.17058722109231997, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19595917942265423], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4841487374764085, 0.25514701644346155, 0.536283507111677, 0.1705872210923198, 0.13999999999999987, 0.0, 0.2179449471770336, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2551470164434615, 0.13999999999999987, 0.19595917942265417, 0.13999999999999987, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3059411708155672, 0.17058722109231977, 0.6114736298484177, 0.1989974874213239, 0.13999999999999993, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.13999999999999993], [0.0, 0.1959591794226542, 0.13999999999999987, 0.29580398915498074, 0.0, 0.09949874371066196, 0.0, 0.1399999999999999, 0.0, 0.0, 0.13999999999999993, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999], [0.0, 0.2917190429162962, 0.22158519806160326, 0.34914180500192216, 0.13999999999999999, 0.21794494717703367, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.36932370625238836, 0.5291502622129177, 0.47696960070847344, 0.9390953093270137, 0.32787192621509975, 0.30594117081556704, 0.0, 0.9039358384310252, 0.0, 0.13999999999999987, 0.3278719262150997, 0.27640549922170504, 0.1705872210923198, 0.0, 0.0, 0.3919183588453082, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.17058722109231994, 0.0, 0.0, 0.0, 0.09949874371066197, 0.09949874371066197, 0.09949874371066196, 0.0, 0.3655133376499403]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006960877168681757</v>
+        <v>0.003473244865922659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5759409009216028</v>
+        <v>0.4420337938636918</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01867303382016695</v>
+        <v>0.001634249706322299</v>
       </c>
       <c r="E6" t="n">
-        <v>0.533001912971466</v>
+        <v>0.6161599984825128</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01488366215525795</v>
+        <v>0.0004497441660084749</v>
       </c>
       <c r="G6" t="n">
-        <v>1.13371598977399</v>
+        <v>1.066165840400745</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003220244480596287</v>
+        <v>0.004281147109748569</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04792925507254228</v>
+        <v>0.008142930656882812</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09431199345275587</v>
+        <v>0.09512827255667748</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002430663288473899</v>
+        <v>0.000831074171672848</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004899927289413737</v>
+        <v>0.00169403414369989</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02940086840835149</v>
+        <v>0.001746990102671211</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04951210549859436</v>
+        <v>0.05300460414559527</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01980153879029898</v>
+        <v>0.01710707138661609</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02459832704443078</v>
+        <v>0.01942363302497808</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01854345017997475</v>
+        <v>0.009313358075309523</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6280458016128541</v>
+        <v>0.3087838450237124</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05351349467033227</v>
+        <v>0.07817962932931018</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9597654676719529</v>
+        <v>0.9597345783070789</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7891627294179501</v>
+        <v>0.6556270098794431</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9725438799310763</v>
+        <v>0.9669289426250299</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6539489556843545</v>
+        <v>0.5510360773306971</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9705282188323117</v>
+        <v>0.954388944140809</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7676685675084872</v>
+        <v>0.7594969758657635</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9043460456212193</v>
+        <v>0.8959617599157955</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6279158634929697</v>
+        <v>0.9451439513912008</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8242883121512735</v>
+        <v>0.8216808946810354</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9559436304601429</v>
+        <v>0.9647521341136427</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9403656375898745</v>
+        <v>0.9618200290617961</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8942059243679182</v>
+        <v>0.9629268376012632</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7960549908145674</v>
+        <v>0.7692324640197389</v>
       </c>
       <c r="O7" t="n">
-        <v>0.940184019042909</v>
+        <v>0.9607911278388733</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9418591323714985</v>
+        <v>0.9273827589271548</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9592775010919707</v>
+        <v>0.9729359282507621</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8269380573246322</v>
+        <v>0.8780523785286507</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9377431278418163</v>
+        <v>0.9654373888792153</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05615641778608944</v>
+        <v>0.005673673844877807</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2256054062405502</v>
+        <v>0.09687945812208787</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02045848537201778</v>
+        <v>0.01666899214456231</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1157202288231382</v>
+        <v>0.02485289639416947</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02300109534029054</v>
+        <v>0.03091073306577756</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8176117092058093</v>
+        <v>0.7165487544316497</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01359695579495689</v>
+        <v>0.03975508906295228</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1210171843732062</v>
+        <v>1.664753614157009</v>
       </c>
       <c r="J8" t="n">
-        <v>2.278275363370601</v>
+        <v>1.980017425831483</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02860803884260301</v>
+        <v>0.01574877386148002</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4131916414013063</v>
+        <v>0.2552903369016905</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3886180817956465</v>
+        <v>0.2133276496107439</v>
       </c>
       <c r="N8" t="n">
-        <v>1.042826367149434</v>
+        <v>0.6597032138253972</v>
       </c>
       <c r="O8" t="n">
-        <v>2.08159700526814</v>
+        <v>2.353948755510932</v>
       </c>
       <c r="P8" t="n">
-        <v>1.214990551446867</v>
+        <v>1.142737709724866</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.436776096315812</v>
+        <v>0.2812278617696669</v>
       </c>
       <c r="R8" t="n">
-        <v>1.52223360936271</v>
+        <v>2.321879283446249</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4570175891691095</v>
+        <v>0.2771627520830768</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9452308091710405</v>
+        <v>0.9490937277989888</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7984482224663462</v>
+        <v>0.7298411143708441</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9500919237387624</v>
+        <v>0.9450719066029034</v>
       </c>
       <c r="E9" t="n">
-        <v>0.837129345772837</v>
+        <v>0.8543481914016549</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9254574225745269</v>
+        <v>0.930974828051559</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7971139263724137</v>
+        <v>0.7617920459475979</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8486986788445418</v>
+        <v>0.8446074107681181</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6189297079199907</v>
+        <v>0.9407787655026676</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1894478021594193</v>
+        <v>0.1781224340810184</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9377732858087728</v>
+        <v>0.9553818692314321</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9284968015858988</v>
+        <v>0.9426410538393175</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8948809691010896</v>
+        <v>0.9411783598399565</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6655070156256148</v>
+        <v>0.5287351330295995</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9154694183572646</v>
+        <v>0.9189413030090647</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9310942986096556</v>
+        <v>0.8951326657171942</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9154196339207474</v>
+        <v>0.9392018181203513</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8017220680505588</v>
+        <v>0.8379356793716282</v>
       </c>
       <c r="S9" t="n">
-        <v>0.936647702862885</v>
+        <v>0.9616302890413806</v>
       </c>
     </row>
   </sheetData>
